--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1912954.397932856</v>
+        <v>-1913728.632853994</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681853</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>39.88136420416884</v>
       </c>
       <c r="F8" t="n">
-        <v>19.61346305263856</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>20.35309587319853</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5051698924239</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.3934926556273</v>
       </c>
       <c r="E11" t="n">
         <v>260.9067956563163</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0826233815696</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1288013013913</v>
+        <v>292.1288013013914</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.6612460886614</v>
       </c>
       <c r="I11" t="n">
-        <v>63.16917062543693</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>20.9049015797792</v>
       </c>
       <c r="U11" t="n">
-        <v>7.424917459968322</v>
+        <v>129.2253455572958</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3219814235482</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3188769015835</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4758316522646</v>
+        <v>264.4758316522647</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.81434382842987</v>
       </c>
       <c r="D12" t="n">
-        <v>49.21308982359958</v>
+        <v>23.90118347567444</v>
       </c>
       <c r="E12" t="n">
-        <v>33.82219360820262</v>
+        <v>33.82219360820271</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.29499198457817</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7478085837526</v>
+        <v>13.53656848478147</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.59592120417301</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.63490948140132</v>
+        <v>144.5427370334995</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06123001120423</v>
+        <v>75.06123001120432</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4278184405136</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V12" t="n">
-        <v>109.6974909406839</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1515,7 +1515,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.45991131961482</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.8724513917126</v>
+        <v>57.87245139171269</v>
       </c>
       <c r="C13" t="n">
-        <v>45.12531283223113</v>
+        <v>45.12531283223122</v>
       </c>
       <c r="D13" t="n">
-        <v>26.79432641554816</v>
+        <v>26.79432641554824</v>
       </c>
       <c r="E13" t="n">
-        <v>24.76338407422797</v>
+        <v>19.64246905768454</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94778131083329</v>
+        <v>23.94778131083338</v>
       </c>
       <c r="G13" t="n">
-        <v>45.44746136318761</v>
+        <v>45.44746136318769</v>
       </c>
       <c r="H13" t="n">
-        <v>37.37003242217864</v>
+        <v>37.37003242217872</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60389084410401</v>
+        <v>24.60389084410409</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.79836742102019</v>
+        <v>40.79836742102027</v>
       </c>
       <c r="S13" t="n">
-        <v>96.12242798919027</v>
+        <v>96.12242798919034</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1347067112987</v>
+        <v>105.1347067112988</v>
       </c>
       <c r="U13" t="n">
         <v>163.8284364302049</v>
@@ -1588,13 +1588,13 @@
         <v>130.725110967968</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8813367884443</v>
+        <v>163.8813367884444</v>
       </c>
       <c r="X13" t="n">
-        <v>103.929119833338</v>
+        <v>103.9291198333381</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.41651875225627</v>
+        <v>96.5374337687971</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7738555799714</v>
+        <v>244.7738555799715</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.3934926556273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0826233815696</v>
+        <v>285.0826233815697</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1288013013913</v>
+        <v>292.1288013013914</v>
       </c>
       <c r="H14" t="n">
         <v>210.6612460886614</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>109.4994407334329</v>
       </c>
       <c r="V14" t="n">
-        <v>95.24257435686245</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6503590321982</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4758316522646</v>
+        <v>264.4758316522647</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.16088551137371</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1698,13 +1698,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>13.53656848478139</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.63490948140132</v>
+        <v>81.92974751856913</v>
       </c>
       <c r="T15" t="n">
-        <v>75.06123001120423</v>
+        <v>75.06123001120432</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4278184405136</v>
+        <v>102.4278184405137</v>
       </c>
       <c r="V15" t="n">
-        <v>109.6974909406839</v>
+        <v>109.697490940684</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7781066510288</v>
+        <v>127.7781066510289</v>
       </c>
       <c r="X15" t="n">
-        <v>185.1582170616051</v>
+        <v>82.25038950950714</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.4599113196149</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.8724513917126</v>
+        <v>57.87245139171269</v>
       </c>
       <c r="C16" t="n">
-        <v>45.12531283223113</v>
+        <v>45.12531283223122</v>
       </c>
       <c r="D16" t="n">
-        <v>26.79432641554816</v>
+        <v>26.79432641554824</v>
       </c>
       <c r="E16" t="n">
-        <v>24.76338407422797</v>
+        <v>24.76338407422806</v>
       </c>
       <c r="F16" t="n">
-        <v>23.94778131083329</v>
+        <v>23.94778131083338</v>
       </c>
       <c r="G16" t="n">
-        <v>45.4474613631876</v>
+        <v>45.44746136318768</v>
       </c>
       <c r="H16" t="n">
-        <v>37.37003242217865</v>
+        <v>37.37003242217874</v>
       </c>
       <c r="I16" t="n">
-        <v>19.48297582756383</v>
+        <v>24.6038908441041</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.79836742102019</v>
+        <v>40.79836742102027</v>
       </c>
       <c r="S16" t="n">
-        <v>96.12242798919026</v>
+        <v>96.12242798919034</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1347067112987</v>
+        <v>105.1347067112988</v>
       </c>
       <c r="U16" t="n">
         <v>163.8284364302049</v>
       </c>
       <c r="V16" t="n">
-        <v>130.725110967968</v>
+        <v>125.6041959514242</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8813367884443</v>
+        <v>163.8813367884444</v>
       </c>
       <c r="X16" t="n">
-        <v>103.929119833338</v>
+        <v>103.9291198333381</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53743376879702</v>
+        <v>96.5374337687971</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>159.3860792482629</v>
       </c>
       <c r="C17" t="n">
-        <v>142.6547649358105</v>
+        <v>142.6547649358108</v>
       </c>
       <c r="D17" t="n">
-        <v>132.2744020114663</v>
+        <v>132.2744020114662</v>
       </c>
       <c r="E17" t="n">
         <v>158.7877050121553</v>
@@ -1856,7 +1856,7 @@
         <v>182.9635327374087</v>
       </c>
       <c r="G17" t="n">
-        <v>190.0097106572304</v>
+        <v>190.0097106572303</v>
       </c>
       <c r="H17" t="n">
         <v>108.5421554445004</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.10625491313482</v>
+        <v>27.10625491313477</v>
       </c>
       <c r="V17" t="n">
         <v>104.2028907793872</v>
       </c>
       <c r="W17" t="n">
-        <v>126.1997862574225</v>
+        <v>126.1997862574224</v>
       </c>
       <c r="X17" t="n">
-        <v>146.5312683880373</v>
+        <v>146.5312683880372</v>
       </c>
       <c r="Y17" t="n">
-        <v>162.3567410081037</v>
+        <v>162.3567410081036</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>112.1321379602821</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.53621675610886</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.59592120417301</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3087277963526656</v>
+        <v>0.3087277963526087</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.015616067137825</v>
+        <v>3.015616067137768</v>
       </c>
       <c r="U19" t="n">
-        <v>61.70934578604395</v>
+        <v>61.70934578604389</v>
       </c>
       <c r="V19" t="n">
-        <v>28.60602032380703</v>
+        <v>28.60602032380697</v>
       </c>
       <c r="W19" t="n">
-        <v>61.76224614428341</v>
+        <v>61.76224614428335</v>
       </c>
       <c r="X19" t="n">
-        <v>1.810029189177129</v>
+        <v>51.75549726509403</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.9200922491159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>159.3860792482629</v>
       </c>
       <c r="C20" t="n">
-        <v>142.6547649358105</v>
+        <v>142.6547649358104</v>
       </c>
       <c r="D20" t="n">
-        <v>132.2744020114663</v>
+        <v>132.2744020114662</v>
       </c>
       <c r="E20" t="n">
         <v>158.7877050121553</v>
@@ -2093,7 +2093,7 @@
         <v>182.9635327374087</v>
       </c>
       <c r="G20" t="n">
-        <v>190.0097106572304</v>
+        <v>190.0097106572303</v>
       </c>
       <c r="H20" t="n">
         <v>108.5421554445004</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.10625491313482</v>
+        <v>27.10625491313476</v>
       </c>
       <c r="V20" t="n">
         <v>104.2028907793872</v>
       </c>
       <c r="W20" t="n">
-        <v>126.1997862574225</v>
+        <v>126.1997862574224</v>
       </c>
       <c r="X20" t="n">
-        <v>146.5312683880373</v>
+        <v>146.5312683880372</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.3567410081033</v>
+        <v>162.3567410081036</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29.11008703949224</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>193.2649644162175</v>
+        <v>0.3087277963526087</v>
       </c>
       <c r="V21" t="n">
-        <v>7.578400296523</v>
+        <v>7.578400296522943</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2281,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.42702290057036</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.9200922491159</v>
+        <v>136.4930693485458</v>
       </c>
       <c r="T22" t="n">
-        <v>3.015616067137825</v>
+        <v>3.015616067137768</v>
       </c>
       <c r="U22" t="n">
-        <v>61.70934578604395</v>
+        <v>61.70934578604389</v>
       </c>
       <c r="V22" t="n">
-        <v>28.60602032380703</v>
+        <v>28.60602032380697</v>
       </c>
       <c r="W22" t="n">
-        <v>61.76224614428341</v>
+        <v>61.76224614428335</v>
       </c>
       <c r="X22" t="n">
-        <v>1.810029189177129</v>
+        <v>1.810029189177072</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>159.3860792482629</v>
       </c>
       <c r="C23" t="n">
-        <v>142.6547649358105</v>
+        <v>142.6547649358104</v>
       </c>
       <c r="D23" t="n">
-        <v>132.2744020114663</v>
+        <v>132.2744020114662</v>
       </c>
       <c r="E23" t="n">
         <v>158.7877050121553</v>
@@ -2330,7 +2330,7 @@
         <v>182.9635327374087</v>
       </c>
       <c r="G23" t="n">
-        <v>190.0097106572304</v>
+        <v>190.0097106572303</v>
       </c>
       <c r="H23" t="n">
         <v>108.5421554445004</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.10625491313482</v>
+        <v>27.10625491313476</v>
       </c>
       <c r="V23" t="n">
         <v>104.2028907793872</v>
       </c>
       <c r="W23" t="n">
-        <v>126.1997862574225</v>
+        <v>126.1997862574224</v>
       </c>
       <c r="X23" t="n">
-        <v>146.5312683880373</v>
+        <v>146.5312683880372</v>
       </c>
       <c r="Y23" t="n">
-        <v>162.3567410081037</v>
+        <v>162.3567410081036</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>8.132007005962652</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3087277963526656</v>
+        <v>0.3087277963526087</v>
       </c>
       <c r="V24" t="n">
-        <v>200.5346369163877</v>
+        <v>7.578400296522943</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>199.9357083162538</v>
+        <v>53.77668690644936</v>
       </c>
       <c r="U25" t="n">
-        <v>61.70934578604395</v>
+        <v>61.70934578604389</v>
       </c>
       <c r="V25" t="n">
-        <v>28.60602032380703</v>
+        <v>28.60602032380697</v>
       </c>
       <c r="W25" t="n">
-        <v>61.76224614428341</v>
+        <v>61.76224614428335</v>
       </c>
       <c r="X25" t="n">
-        <v>1.810029189177129</v>
+        <v>1.810029189177072</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.13406238028854</v>
+        <v>100.1039431245967</v>
       </c>
       <c r="T27" t="n">
-        <v>54.56038291009147</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U27" t="n">
-        <v>167.8611307000403</v>
+        <v>81.92697133940082</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2731,7 +2731,7 @@
         <v>16.86918532106587</v>
       </c>
       <c r="I28" t="n">
-        <v>4.103043742991237</v>
+        <v>4.103043742991239</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>190.1603989875485</v>
       </c>
       <c r="I29" t="n">
-        <v>42.66832352432415</v>
+        <v>42.66832352432417</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.42359129441886</v>
+        <v>51.42359129441887</v>
       </c>
       <c r="T29" t="n">
         <v>77.99982567115342</v>
@@ -2877,13 +2877,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>13.32134650708986</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7478085837526</v>
+        <v>78.96988074430818</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.59592120417301</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29.47230053675528</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T30" t="n">
-        <v>54.56038291009147</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6390585394848</v>
+        <v>81.92697133940082</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.19664383957115</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -2968,7 +2968,7 @@
         <v>16.86918532106587</v>
       </c>
       <c r="I31" t="n">
-        <v>4.103043742991237</v>
+        <v>4.103043742991239</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>213.9549019319561</v>
       </c>
       <c r="D32" t="n">
-        <v>203.5745390076119</v>
+        <v>203.5745390076118</v>
       </c>
       <c r="E32" t="n">
         <v>230.0878420083009</v>
@@ -3047,7 +3047,7 @@
         <v>179.842292440646</v>
       </c>
       <c r="I32" t="n">
-        <v>32.35021697742161</v>
+        <v>32.35021697742158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.1054847475163</v>
+        <v>41.10548474751627</v>
       </c>
       <c r="T32" t="n">
-        <v>67.68171912425086</v>
+        <v>67.68171912425083</v>
       </c>
       <c r="U32" t="n">
-        <v>98.40639190928042</v>
+        <v>98.40639190928039</v>
       </c>
       <c r="V32" t="n">
         <v>175.5030277755328</v>
       </c>
       <c r="W32" t="n">
-        <v>197.4999232535681</v>
+        <v>197.499923253568</v>
       </c>
       <c r="X32" t="n">
-        <v>217.8314053841829</v>
+        <v>217.8314053841828</v>
       </c>
       <c r="Y32" t="n">
         <v>233.6568780042493</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>22.58457987757249</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10.81595583338599</v>
+        <v>10.81595583338596</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2724701101754</v>
+        <v>44.24227636318889</v>
       </c>
       <c r="U33" t="n">
-        <v>171.2149586306118</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.05349774369728</v>
+        <v>27.05349774369725</v>
       </c>
       <c r="C34" t="n">
-        <v>14.30635918421581</v>
+        <v>14.30635918421578</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.62850771517228</v>
+        <v>14.62850771517225</v>
       </c>
       <c r="H34" t="n">
-        <v>6.551078774163317</v>
+        <v>6.551078774163289</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.979413773004863</v>
+        <v>9.979413773004836</v>
       </c>
       <c r="S34" t="n">
-        <v>65.30347434117495</v>
+        <v>65.30347434117492</v>
       </c>
       <c r="T34" t="n">
-        <v>74.31575306328342</v>
+        <v>74.3157530632834</v>
       </c>
       <c r="U34" t="n">
         <v>133.0094827821895</v>
       </c>
       <c r="V34" t="n">
-        <v>99.90615731995263</v>
+        <v>99.9061573199526</v>
       </c>
       <c r="W34" t="n">
         <v>133.062383140429</v>
       </c>
       <c r="X34" t="n">
-        <v>73.11016618532273</v>
+        <v>73.1101661853227</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.71848012078169</v>
+        <v>65.71848012078166</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>191.1133521783781</v>
+        <v>191.113352178378</v>
       </c>
       <c r="C35" t="n">
-        <v>174.3820378659257</v>
+        <v>174.3820378659256</v>
       </c>
       <c r="D35" t="n">
-        <v>164.0016749415814</v>
+        <v>164.0016749415813</v>
       </c>
       <c r="E35" t="n">
-        <v>190.5149779422705</v>
+        <v>190.5149779422704</v>
       </c>
       <c r="F35" t="n">
-        <v>214.6908056675239</v>
+        <v>214.6908056675238</v>
       </c>
       <c r="G35" t="n">
         <v>221.7369835873455</v>
       </c>
       <c r="H35" t="n">
-        <v>140.2694283746156</v>
+        <v>140.2694283746155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.532620681485866</v>
+        <v>1.532620681485781</v>
       </c>
       <c r="T35" t="n">
-        <v>28.10885505822043</v>
+        <v>28.10885505822034</v>
       </c>
       <c r="U35" t="n">
-        <v>58.83352784324998</v>
+        <v>58.8335278432499</v>
       </c>
       <c r="V35" t="n">
-        <v>135.9301637095024</v>
+        <v>135.9301637095023</v>
       </c>
       <c r="W35" t="n">
-        <v>157.9270591875376</v>
+        <v>157.9270591875375</v>
       </c>
       <c r="X35" t="n">
-        <v>178.2585413181524</v>
+        <v>178.2585413181523</v>
       </c>
       <c r="Y35" t="n">
         <v>194.0840139382188</v>
@@ -3357,10 +3357,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I36" t="n">
         <v>77.02151396054033</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>77.64281207414753</v>
+        <v>26.69534565005188</v>
       </c>
       <c r="U36" t="n">
         <v>224.6390585394848</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>39.30567322663808</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.73061027514451</v>
+        <v>25.73061027514443</v>
       </c>
       <c r="T37" t="n">
-        <v>34.74288899725299</v>
+        <v>34.7428889972529</v>
       </c>
       <c r="U37" t="n">
-        <v>93.43661871615912</v>
+        <v>93.43661871615903</v>
       </c>
       <c r="V37" t="n">
-        <v>60.33329325392219</v>
+        <v>60.33329325392211</v>
       </c>
       <c r="W37" t="n">
-        <v>93.48951907439857</v>
+        <v>93.48951907439849</v>
       </c>
       <c r="X37" t="n">
-        <v>33.53730211929229</v>
+        <v>33.53730211929221</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.14561605475126</v>
+        <v>26.14561605475117</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.59592120417301</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.8461495803725</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4.66941229715848</v>
+        <v>77.64281207414753</v>
       </c>
       <c r="U39" t="n">
-        <v>133.1919014924695</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C41" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D41" t="n">
         <v>164.0016749415814</v>
       </c>
       <c r="E41" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F41" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G41" t="n">
         <v>221.7369835873455</v>
       </c>
       <c r="H41" t="n">
-        <v>140.2694283746155</v>
+        <v>140.2694283746156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485866</v>
       </c>
       <c r="T41" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822043</v>
       </c>
       <c r="U41" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784324998</v>
       </c>
       <c r="V41" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W41" t="n">
         <v>157.9270591875376</v>
@@ -3822,16 +3822,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>33.63289412069938</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7478085837526</v>
+        <v>108.9347289651169</v>
       </c>
       <c r="H42" t="n">
         <v>107.8027156533609</v>
@@ -3870,13 +3870,13 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T42" t="n">
-        <v>4.669412297158424</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6390585394848</v>
+        <v>32.03600072646783</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>39.30567322663816</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>11.06809360556906</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>25.73061027514446</v>
+        <v>25.73061027514451</v>
       </c>
       <c r="T43" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725299</v>
       </c>
       <c r="U43" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615912</v>
       </c>
       <c r="V43" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392219</v>
       </c>
       <c r="W43" t="n">
-        <v>93.48951907439852</v>
+        <v>93.48951907439857</v>
       </c>
       <c r="X43" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929229</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475126</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>191.1133521783781</v>
       </c>
       <c r="C44" t="n">
-        <v>174.3820378659257</v>
+        <v>174.3820378659256</v>
       </c>
       <c r="D44" t="n">
         <v>164.0016749415814</v>
@@ -3986,7 +3986,7 @@
         <v>190.5149779422705</v>
       </c>
       <c r="F44" t="n">
-        <v>214.6908056675239</v>
+        <v>214.6908056675238</v>
       </c>
       <c r="G44" t="n">
         <v>221.7369835873455</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.532620681485866</v>
+        <v>1.532620681485838</v>
       </c>
       <c r="T44" t="n">
-        <v>28.10885505822043</v>
+        <v>28.1088550582204</v>
       </c>
       <c r="U44" t="n">
-        <v>58.83352784324998</v>
+        <v>58.83352784324995</v>
       </c>
       <c r="V44" t="n">
         <v>135.9301637095024</v>
@@ -4062,19 +4062,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S45" t="n">
-        <v>149.9949137375303</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4.66941229715848</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6390585394848</v>
+        <v>219.1504294366463</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.73061027514451</v>
+        <v>25.73061027514449</v>
       </c>
       <c r="T46" t="n">
-        <v>34.74288899725299</v>
+        <v>34.74288899725296</v>
       </c>
       <c r="U46" t="n">
-        <v>93.43661871615912</v>
+        <v>93.43661871615909</v>
       </c>
       <c r="V46" t="n">
-        <v>60.33329325392219</v>
+        <v>60.33329325392216</v>
       </c>
       <c r="W46" t="n">
-        <v>93.48951907439857</v>
+        <v>93.48951907439854</v>
       </c>
       <c r="X46" t="n">
-        <v>33.53730211929229</v>
+        <v>33.53730211929226</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.14561605475126</v>
+        <v>26.14561605475123</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="C8" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="D8" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="E8" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="F8" t="n">
         <v>78.95704428300093</v>
       </c>
-      <c r="C8" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="D8" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38.67283801616371</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.86125917511466</v>
-      </c>
       <c r="G8" t="n">
-        <v>3.856445635891503</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H8" t="n">
-        <v>3.856445635891503</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="I8" t="n">
         <v>3.856445635891503</v>
@@ -4811,16 +4811,16 @@
         <v>42.67305969846066</v>
       </c>
       <c r="M8" t="n">
-        <v>82.15561026058782</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N8" t="n">
-        <v>82.15561026058782</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O8" t="n">
-        <v>116.0239590224227</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P8" t="n">
-        <v>155.5065095845499</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5254568166754</v>
@@ -4847,7 +4847,7 @@
         <v>159.5254568166754</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>124.0431279368452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>124.0431279368452</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.75892167000794</v>
+      </c>
+      <c r="E9" t="n">
+        <v>83.75892167000794</v>
+      </c>
+      <c r="F9" t="n">
         <v>43.47471540317073</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.190509136333507</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.190509136333507</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.190509136333507</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.190509136333507</v>
-      </c>
       <c r="G9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="I9" t="n">
         <v>3.190509136333507</v>
@@ -4884,22 +4884,22 @@
         <v>3.190509136333507</v>
       </c>
       <c r="K9" t="n">
-        <v>3.190509136333507</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L9" t="n">
-        <v>42.67305969846066</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M9" t="n">
-        <v>42.67305969846066</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N9" t="n">
-        <v>42.67305969846066</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O9" t="n">
-        <v>80.56035569242104</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P9" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q9" t="n">
         <v>159.5254568166754</v>
@@ -4920,13 +4920,13 @@
         <v>159.5254568166754</v>
       </c>
       <c r="W9" t="n">
-        <v>124.0431279368452</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X9" t="n">
-        <v>83.75892167000794</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.47471540317073</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E10" t="n">
-        <v>3.190509136333507</v>
+        <v>138.9667741164748</v>
       </c>
       <c r="F10" t="n">
-        <v>3.190509136333507</v>
+        <v>98.68256784963759</v>
       </c>
       <c r="G10" t="n">
-        <v>3.190509136333507</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="H10" t="n">
-        <v>3.190509136333507</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="I10" t="n">
-        <v>3.190509136333507</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="J10" t="n">
-        <v>3.190509136333507</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K10" t="n">
         <v>3.190509136333507</v>
@@ -4987,25 +4987,25 @@
         <v>159.5254568166754</v>
       </c>
       <c r="S10" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T10" t="n">
-        <v>78.95704428300093</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U10" t="n">
-        <v>38.67283801616371</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>944.2196959114393</v>
+        <v>1042.00044817132</v>
       </c>
       <c r="C11" t="n">
-        <v>944.2196959114393</v>
+        <v>1042.00044817132</v>
       </c>
       <c r="D11" t="n">
-        <v>944.2196959114393</v>
+        <v>805.2393444787674</v>
       </c>
       <c r="E11" t="n">
-        <v>680.6774780767764</v>
+        <v>541.6971266441044</v>
       </c>
       <c r="F11" t="n">
-        <v>392.7152322368071</v>
+        <v>541.6971266441044</v>
       </c>
       <c r="G11" t="n">
-        <v>97.63563496267429</v>
+        <v>246.6175293699717</v>
       </c>
       <c r="H11" t="n">
-        <v>97.63563496267429</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="I11" t="n">
         <v>33.82839190667737</v>
       </c>
       <c r="J11" t="n">
-        <v>76.42539836894389</v>
+        <v>76.42539836894383</v>
       </c>
       <c r="K11" t="n">
-        <v>262.5438616526806</v>
+        <v>262.5438616526804</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4093511996118</v>
+        <v>545.4093511996116</v>
       </c>
       <c r="M11" t="n">
         <v>875.3640045234893</v>
@@ -5069,22 +5069,22 @@
         <v>1691.419595333869</v>
       </c>
       <c r="T11" t="n">
-        <v>1691.419595333869</v>
+        <v>1670.303533132072</v>
       </c>
       <c r="U11" t="n">
-        <v>1683.919678707638</v>
+        <v>1539.772881053995</v>
       </c>
       <c r="V11" t="n">
-        <v>1475.51363686567</v>
+        <v>1539.772881053995</v>
       </c>
       <c r="W11" t="n">
-        <v>1475.51363686567</v>
+        <v>1309.147752870578</v>
       </c>
       <c r="X11" t="n">
-        <v>1475.51363686567</v>
+        <v>1309.147752870578</v>
       </c>
       <c r="Y11" t="n">
-        <v>1208.366332166413</v>
+        <v>1042.00044817132</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>572.5303192061775</v>
+        <v>176.6256458275528</v>
       </c>
       <c r="C12" t="n">
-        <v>399.7772041279947</v>
+        <v>127.3182278190378</v>
       </c>
       <c r="D12" t="n">
-        <v>350.067012386985</v>
+        <v>103.1756182476495</v>
       </c>
       <c r="E12" t="n">
-        <v>315.9031804595076</v>
+        <v>69.01178632017198</v>
       </c>
       <c r="F12" t="n">
-        <v>170.9473904761245</v>
+        <v>47.50169340645665</v>
       </c>
       <c r="G12" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H12" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I12" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J12" t="n">
-        <v>66.98092231877611</v>
+        <v>66.98092231877612</v>
       </c>
       <c r="K12" t="n">
         <v>250.2494904826884</v>
       </c>
       <c r="L12" t="n">
-        <v>557.5263040883274</v>
+        <v>278.0318790733223</v>
       </c>
       <c r="M12" t="n">
-        <v>573.4282256750607</v>
+        <v>689.40962131485</v>
       </c>
       <c r="N12" t="n">
-        <v>992.0545755201932</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O12" t="n">
-        <v>1324.803995517701</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P12" t="n">
-        <v>1575.438199694079</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q12" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="R12" t="n">
-        <v>1613.039876945815</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="S12" t="n">
-        <v>1570.984412823188</v>
+        <v>1545.416830653566</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.164988569446</v>
+        <v>1469.597406399825</v>
       </c>
       <c r="U12" t="n">
-        <v>1391.70254570024</v>
+        <v>1242.689266460951</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.896999295509</v>
+        <v>1008.438022986552</v>
       </c>
       <c r="W12" t="n">
-        <v>1028.382507628842</v>
+        <v>755.9235313198853</v>
       </c>
       <c r="X12" t="n">
-        <v>821.8556090344197</v>
+        <v>549.3966327254628</v>
       </c>
       <c r="Y12" t="n">
-        <v>739.572870327738</v>
+        <v>343.6681969491133</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.1841386362842</v>
+        <v>259.0114972054333</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6030145633235</v>
+        <v>213.4303731324726</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5380383860021</v>
+        <v>186.3653969551511</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5245191191052</v>
+        <v>166.5245191191056</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3348410273544</v>
+        <v>142.3348410273547</v>
       </c>
       <c r="G13" t="n">
-        <v>96.42831439787199</v>
+        <v>96.42831439787216</v>
       </c>
       <c r="H13" t="n">
-        <v>58.68080690072182</v>
+        <v>58.68080690072192</v>
       </c>
       <c r="I13" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J13" t="n">
         <v>83.02756967032963</v>
       </c>
       <c r="K13" t="n">
-        <v>215.9467083111791</v>
+        <v>215.946708311179</v>
       </c>
       <c r="L13" t="n">
-        <v>408.0057577934584</v>
+        <v>408.0057577934581</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5210528970199</v>
+        <v>614.5210528970196</v>
       </c>
       <c r="N13" t="n">
-        <v>824.1439887949007</v>
+        <v>824.1439887949003</v>
       </c>
       <c r="O13" t="n">
         <v>1011.664187607628</v>
@@ -5221,28 +5221,28 @@
         <v>1227.526033874095</v>
       </c>
       <c r="R13" t="n">
-        <v>1186.315561731651</v>
+        <v>1186.31556173165</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.222200126408</v>
+        <v>1089.222200126407</v>
       </c>
       <c r="T13" t="n">
-        <v>983.0255266806516</v>
+        <v>983.0255266806508</v>
       </c>
       <c r="U13" t="n">
-        <v>817.5422575592326</v>
+        <v>817.5422575592318</v>
       </c>
       <c r="V13" t="n">
-        <v>685.4966909249215</v>
+        <v>685.4966909249206</v>
       </c>
       <c r="W13" t="n">
-        <v>519.95998709821</v>
+        <v>519.959987098209</v>
       </c>
       <c r="X13" t="n">
-        <v>414.9810781756464</v>
+        <v>414.9810781756452</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.6411602440747</v>
+        <v>317.4685188132239</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1076.905691251722</v>
+        <v>1313.666794944275</v>
       </c>
       <c r="C14" t="n">
-        <v>829.6593724840736</v>
+        <v>1066.420476176627</v>
       </c>
       <c r="D14" t="n">
-        <v>829.6593724840736</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="E14" t="n">
-        <v>829.6593724840736</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="F14" t="n">
-        <v>541.6971266441043</v>
+        <v>541.6971266441049</v>
       </c>
       <c r="G14" t="n">
-        <v>246.6175293699717</v>
+        <v>246.6175293699721</v>
       </c>
       <c r="H14" t="n">
         <v>33.82839190667737</v>
       </c>
       <c r="I14" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J14" t="n">
-        <v>76.42539836894389</v>
+        <v>76.4253983689438</v>
       </c>
       <c r="K14" t="n">
-        <v>262.5438616526803</v>
+        <v>262.5438616526804</v>
       </c>
       <c r="L14" t="n">
         <v>545.4093511996116</v>
@@ -5294,7 +5294,7 @@
         <v>1450.968014056181</v>
       </c>
       <c r="P14" t="n">
-        <v>1632.37209038949</v>
+        <v>1632.372090389489</v>
       </c>
       <c r="Q14" t="n">
         <v>1691.419595333869</v>
@@ -5309,19 +5309,19 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U14" t="n">
-        <v>1691.419595333869</v>
+        <v>1580.814099643533</v>
       </c>
       <c r="V14" t="n">
-        <v>1595.214974771382</v>
+        <v>1580.814099643533</v>
       </c>
       <c r="W14" t="n">
-        <v>1595.214974771382</v>
+        <v>1580.814099643533</v>
       </c>
       <c r="X14" t="n">
-        <v>1344.052995950979</v>
+        <v>1580.814099643533</v>
       </c>
       <c r="Y14" t="n">
-        <v>1076.905691251722</v>
+        <v>1313.666794944275</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>670.4084341062239</v>
+        <v>980.5452722000346</v>
       </c>
       <c r="C15" t="n">
-        <v>497.6553190280411</v>
+        <v>807.7921571218517</v>
       </c>
       <c r="D15" t="n">
-        <v>350.067012386985</v>
+        <v>660.2038504807956</v>
       </c>
       <c r="E15" t="n">
-        <v>192.4574833898397</v>
+        <v>502.5943214836503</v>
       </c>
       <c r="F15" t="n">
-        <v>47.50169340645655</v>
+        <v>357.6385315002672</v>
       </c>
       <c r="G15" t="n">
-        <v>33.82839190667737</v>
+        <v>220.5195329308201</v>
       </c>
       <c r="H15" t="n">
-        <v>33.82839190667737</v>
+        <v>111.6279009577282</v>
       </c>
       <c r="I15" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J15" t="n">
-        <v>33.82839190667737</v>
+        <v>66.98092231877612</v>
       </c>
       <c r="K15" t="n">
-        <v>33.82839190667737</v>
+        <v>66.98092231877612</v>
       </c>
       <c r="L15" t="n">
-        <v>341.1052055123163</v>
+        <v>374.2577359244151</v>
       </c>
       <c r="M15" t="n">
-        <v>752.482947753844</v>
+        <v>785.6354781659427</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.109297598976</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O15" t="n">
-        <v>1503.858717596484</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P15" t="n">
         <v>1691.419595333869</v>
@@ -5382,25 +5382,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.364131211241</v>
+        <v>1608.662274608042</v>
       </c>
       <c r="T15" t="n">
-        <v>1573.544706957499</v>
+        <v>1532.8428503543</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.082264088294</v>
+        <v>1429.380407485094</v>
       </c>
       <c r="V15" t="n">
-        <v>1359.276717683562</v>
+        <v>1318.574861080363</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.207923086563</v>
+        <v>1189.506066483364</v>
       </c>
       <c r="X15" t="n">
-        <v>1043.179421004134</v>
+        <v>1106.424864958609</v>
       </c>
       <c r="Y15" t="n">
-        <v>837.4509852277844</v>
+        <v>1024.142126251927</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>259.0114972054349</v>
+        <v>264.1841386362851</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4303731324742</v>
+        <v>218.6030145633243</v>
       </c>
       <c r="D16" t="n">
-        <v>186.3653969551528</v>
+        <v>191.5380383860028</v>
       </c>
       <c r="E16" t="n">
-        <v>161.3518776882559</v>
+        <v>166.5245191191058</v>
       </c>
       <c r="F16" t="n">
-        <v>137.162199596505</v>
+        <v>142.3348410273547</v>
       </c>
       <c r="G16" t="n">
-        <v>91.25567296702333</v>
+        <v>96.42831439787216</v>
       </c>
       <c r="H16" t="n">
-        <v>53.50816546987317</v>
+        <v>58.68080690072193</v>
       </c>
       <c r="I16" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J16" t="n">
-        <v>83.02756967032971</v>
+        <v>83.02756967032974</v>
       </c>
       <c r="K16" t="n">
-        <v>215.9467083111789</v>
+        <v>215.9467083111791</v>
       </c>
       <c r="L16" t="n">
-        <v>408.0057577934582</v>
+        <v>408.0057577934583</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5210528970198</v>
+        <v>614.5210528970197</v>
       </c>
       <c r="N16" t="n">
-        <v>824.1439887949006</v>
+        <v>824.1439887949005</v>
       </c>
       <c r="O16" t="n">
         <v>1011.664187607628</v>
@@ -5455,31 +5455,31 @@
         <v>1166.359658847678</v>
       </c>
       <c r="Q16" t="n">
-        <v>1227.526033874096</v>
+        <v>1227.526033874095</v>
       </c>
       <c r="R16" t="n">
-        <v>1186.315561731651</v>
+        <v>1186.31556173165</v>
       </c>
       <c r="S16" t="n">
-        <v>1089.222200126408</v>
+        <v>1089.222200126407</v>
       </c>
       <c r="T16" t="n">
-        <v>983.025526680652</v>
+        <v>983.0255266806507</v>
       </c>
       <c r="U16" t="n">
-        <v>817.5422575592329</v>
+        <v>817.5422575592315</v>
       </c>
       <c r="V16" t="n">
-        <v>685.4966909249218</v>
+        <v>690.6693323557724</v>
       </c>
       <c r="W16" t="n">
-        <v>519.9599870982104</v>
+        <v>525.1326285290608</v>
       </c>
       <c r="X16" t="n">
-        <v>414.9810781756466</v>
+        <v>420.153719606497</v>
       </c>
       <c r="Y16" t="n">
-        <v>317.4685188132254</v>
+        <v>322.6411602440756</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.3054331173553</v>
+        <v>958.3054331173558</v>
       </c>
       <c r="C17" t="n">
-        <v>814.2097109599709</v>
+        <v>814.2097109599712</v>
       </c>
       <c r="D17" t="n">
-        <v>680.5992038776818</v>
+        <v>680.599203877682</v>
       </c>
       <c r="E17" t="n">
-        <v>520.2075826532824</v>
+        <v>520.2075826532828</v>
       </c>
       <c r="F17" t="n">
-        <v>335.3959334235767</v>
+        <v>335.395933423577</v>
       </c>
       <c r="G17" t="n">
         <v>143.4669327597081</v>
       </c>
       <c r="H17" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I17" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667779</v>
       </c>
       <c r="J17" t="n">
-        <v>76.42539836894389</v>
+        <v>76.4253983689442</v>
       </c>
       <c r="K17" t="n">
-        <v>262.5438616526806</v>
+        <v>262.5438616526808</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4093511996118</v>
+        <v>545.409351199612</v>
       </c>
       <c r="M17" t="n">
-        <v>875.3640045234895</v>
+        <v>875.3640045234897</v>
       </c>
       <c r="N17" t="n">
         <v>1195.140494102847</v>
@@ -5552,13 +5552,13 @@
         <v>1558.784094634352</v>
       </c>
       <c r="W17" t="n">
-        <v>1431.309563061197</v>
+        <v>1431.309563061198</v>
       </c>
       <c r="X17" t="n">
         <v>1283.298180851059</v>
       </c>
       <c r="Y17" t="n">
-        <v>1119.301472762065</v>
+        <v>1119.301472762066</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>546.6644100534746</v>
+        <v>625.0441284415284</v>
       </c>
       <c r="C18" t="n">
-        <v>373.9112949752918</v>
+        <v>452.2910133633456</v>
       </c>
       <c r="D18" t="n">
-        <v>226.3229883342357</v>
+        <v>304.7027067222895</v>
       </c>
       <c r="E18" t="n">
-        <v>68.71345933709037</v>
+        <v>147.0931777251442</v>
       </c>
       <c r="F18" t="n">
-        <v>68.71345933709037</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="G18" t="n">
-        <v>68.71345933709037</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H18" t="n">
-        <v>68.71345933709037</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I18" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J18" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="K18" t="n">
-        <v>217.0969600705897</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="L18" t="n">
-        <v>524.3737736762287</v>
+        <v>341.1052055123163</v>
       </c>
       <c r="M18" t="n">
-        <v>935.7515159177564</v>
+        <v>752.482947753844</v>
       </c>
       <c r="N18" t="n">
-        <v>1324.803995517701</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O18" t="n">
-        <v>1324.803995517701</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P18" t="n">
-        <v>1575.438199694079</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q18" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="R18" t="n">
-        <v>1613.039876945815</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="S18" t="n">
-        <v>1613.039876945815</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="T18" t="n">
-        <v>1613.039876945815</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="U18" t="n">
-        <v>1612.728030686873</v>
+        <v>1691.107749074927</v>
       </c>
       <c r="V18" t="n">
-        <v>1378.476787212474</v>
+        <v>1456.856505600528</v>
       </c>
       <c r="W18" t="n">
-        <v>1125.962295545807</v>
+        <v>1204.342013933861</v>
       </c>
       <c r="X18" t="n">
-        <v>919.4353969513846</v>
+        <v>997.8151153394384</v>
       </c>
       <c r="Y18" t="n">
-        <v>713.7069611750351</v>
+        <v>792.0866795630889</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.82839190667737</v>
+        <v>182.2876082432422</v>
       </c>
       <c r="C19" t="n">
-        <v>33.82839190667737</v>
+        <v>182.2876082432422</v>
       </c>
       <c r="D19" t="n">
-        <v>33.82839190667737</v>
+        <v>182.2876082432422</v>
       </c>
       <c r="E19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="F19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="G19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J19" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="K19" t="n">
         <v>45.75840284954532</v>
@@ -5680,25 +5680,25 @@
         <v>116.8283246338431</v>
       </c>
       <c r="M19" t="n">
-        <v>202.3544920394232</v>
+        <v>202.3544920394231</v>
       </c>
       <c r="N19" t="n">
         <v>290.9883002393225</v>
       </c>
       <c r="O19" t="n">
-        <v>357.5193713540687</v>
+        <v>357.5193713540685</v>
       </c>
       <c r="P19" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="Q19" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="R19" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="S19" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="T19" t="n">
         <v>388.1796380606445</v>
@@ -5707,16 +5707,16 @@
         <v>325.846965549489</v>
       </c>
       <c r="V19" t="n">
-        <v>296.9519955254415</v>
+        <v>296.9519955254416</v>
       </c>
       <c r="W19" t="n">
-        <v>234.5658883089936</v>
+        <v>234.5658883089937</v>
       </c>
       <c r="X19" t="n">
-        <v>232.7375759966935</v>
+        <v>182.2876082432422</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.82839190667737</v>
+        <v>182.2876082432422</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>958.3054331173557</v>
+        <v>958.3054331173555</v>
       </c>
       <c r="C20" t="n">
-        <v>814.2097109599714</v>
+        <v>814.2097109599712</v>
       </c>
       <c r="D20" t="n">
-        <v>680.5992038776823</v>
+        <v>680.599203877682</v>
       </c>
       <c r="E20" t="n">
-        <v>520.2075826532829</v>
+        <v>520.2075826532828</v>
       </c>
       <c r="F20" t="n">
-        <v>335.395933423577</v>
+        <v>335.3959334235768</v>
       </c>
       <c r="G20" t="n">
-        <v>143.4669327597081</v>
+        <v>143.466932759708</v>
       </c>
       <c r="H20" t="n">
         <v>33.82839190667737</v>
@@ -5750,16 +5750,16 @@
         <v>33.82839190667737</v>
       </c>
       <c r="J20" t="n">
-        <v>76.4253983689438</v>
+        <v>76.42539836894366</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5438616526804</v>
+        <v>262.5438616526801</v>
       </c>
       <c r="L20" t="n">
-        <v>545.4093511996118</v>
+        <v>545.4093511996115</v>
       </c>
       <c r="M20" t="n">
-        <v>875.3640045234895</v>
+        <v>875.364004523489</v>
       </c>
       <c r="N20" t="n">
         <v>1195.140494102847</v>
@@ -5795,7 +5795,7 @@
         <v>1283.298180851059</v>
       </c>
       <c r="Y20" t="n">
-        <v>1119.301472762066</v>
+        <v>1119.301472762065</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>656.7351326064447</v>
+        <v>686.1392609291643</v>
       </c>
       <c r="C21" t="n">
-        <v>483.982017528262</v>
+        <v>513.3861458509814</v>
       </c>
       <c r="D21" t="n">
-        <v>336.3937108872058</v>
+        <v>365.7978392099253</v>
       </c>
       <c r="E21" t="n">
-        <v>178.7841818900605</v>
+        <v>208.18831021278</v>
       </c>
       <c r="F21" t="n">
-        <v>33.82839190667737</v>
+        <v>63.23252022939681</v>
       </c>
       <c r="G21" t="n">
-        <v>33.82839190667737</v>
+        <v>63.23252022939681</v>
       </c>
       <c r="H21" t="n">
-        <v>33.82839190667737</v>
+        <v>63.23252022939681</v>
       </c>
       <c r="I21" t="n">
         <v>33.82839190667737</v>
       </c>
       <c r="J21" t="n">
-        <v>66.98092231877611</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="K21" t="n">
-        <v>250.2494904826884</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="L21" t="n">
-        <v>557.5263040883274</v>
+        <v>341.1052055123163</v>
       </c>
       <c r="M21" t="n">
-        <v>573.4282256750607</v>
+        <v>752.482947753844</v>
       </c>
       <c r="N21" t="n">
-        <v>992.0545755201932</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O21" t="n">
-        <v>1324.803995517701</v>
+        <v>1440.78539115749</v>
       </c>
       <c r="P21" t="n">
-        <v>1575.438199694079</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q21" t="n">
         <v>1691.419595333869</v>
@@ -5856,25 +5856,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S21" t="n">
-        <v>1691.419595333869</v>
+        <v>1525.918434141573</v>
       </c>
       <c r="T21" t="n">
-        <v>1691.419595333869</v>
+        <v>1525.918434141573</v>
       </c>
       <c r="U21" t="n">
-        <v>1496.202459559912</v>
+        <v>1525.606587882631</v>
       </c>
       <c r="V21" t="n">
-        <v>1488.547509765444</v>
+        <v>1517.951638088163</v>
       </c>
       <c r="W21" t="n">
-        <v>1236.033018098777</v>
+        <v>1265.437146421497</v>
       </c>
       <c r="X21" t="n">
-        <v>1029.506119504355</v>
+        <v>1058.910247827074</v>
       </c>
       <c r="Y21" t="n">
-        <v>823.7776837280052</v>
+        <v>853.1818120507247</v>
       </c>
     </row>
     <row r="22">
@@ -5911,43 +5911,43 @@
         <v>33.82839190667737</v>
       </c>
       <c r="K22" t="n">
-        <v>45.75840284954532</v>
+        <v>45.75840284954531</v>
       </c>
       <c r="L22" t="n">
         <v>116.8283246338431</v>
       </c>
       <c r="M22" t="n">
-        <v>202.3544920394232</v>
+        <v>202.3544920394231</v>
       </c>
       <c r="N22" t="n">
         <v>290.9883002393225</v>
       </c>
       <c r="O22" t="n">
-        <v>357.5193713540687</v>
+        <v>357.5193713540685</v>
       </c>
       <c r="P22" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="Q22" t="n">
-        <v>391.2257148961373</v>
+        <v>330.1883180268742</v>
       </c>
       <c r="R22" t="n">
-        <v>391.2257148961373</v>
+        <v>330.1883180268742</v>
       </c>
       <c r="S22" t="n">
-        <v>192.3165308061212</v>
+        <v>192.3165308061209</v>
       </c>
       <c r="T22" t="n">
-        <v>189.2704539706284</v>
+        <v>189.2704539706282</v>
       </c>
       <c r="U22" t="n">
-        <v>126.9377814594729</v>
+        <v>126.9377814594727</v>
       </c>
       <c r="V22" t="n">
-        <v>98.04281143542539</v>
+        <v>98.04281143542528</v>
       </c>
       <c r="W22" t="n">
-        <v>35.6567042189775</v>
+        <v>35.65670421897745</v>
       </c>
       <c r="X22" t="n">
         <v>33.82839190667737</v>
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>958.3054331173548</v>
+        <v>958.3054331173551</v>
       </c>
       <c r="C23" t="n">
-        <v>814.2097109599705</v>
+        <v>814.2097109599708</v>
       </c>
       <c r="D23" t="n">
-        <v>680.5992038776814</v>
+        <v>680.5992038776817</v>
       </c>
       <c r="E23" t="n">
-        <v>520.207582653282</v>
+        <v>520.2075826532824</v>
       </c>
       <c r="F23" t="n">
-        <v>335.3959334235761</v>
+        <v>335.3959334235767</v>
       </c>
       <c r="G23" t="n">
-        <v>143.4669327597081</v>
+        <v>143.466932759708</v>
       </c>
       <c r="H23" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="I23" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667665</v>
       </c>
       <c r="J23" t="n">
-        <v>76.4253983689438</v>
+        <v>76.42539836894306</v>
       </c>
       <c r="K23" t="n">
-        <v>262.5438616526804</v>
+        <v>262.5438616526797</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4093511996118</v>
+        <v>545.4093511996109</v>
       </c>
       <c r="M23" t="n">
-        <v>875.3640045234895</v>
+        <v>875.3640045234886</v>
       </c>
       <c r="N23" t="n">
-        <v>1195.140494102847</v>
+        <v>1195.140494102846</v>
       </c>
       <c r="O23" t="n">
-        <v>1450.968014056181</v>
+        <v>1450.96801405618</v>
       </c>
       <c r="P23" t="n">
-        <v>1632.37209038949</v>
+        <v>1632.372090389489</v>
       </c>
       <c r="Q23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="R23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="S23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="T23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="U23" t="n">
-        <v>1664.039539866056</v>
+        <v>1664.039539866055</v>
       </c>
       <c r="V23" t="n">
         <v>1558.784094634351</v>
@@ -6029,7 +6029,7 @@
         <v>1431.309563061197</v>
       </c>
       <c r="X23" t="n">
-        <v>1283.298180851059</v>
+        <v>1283.298180851058</v>
       </c>
       <c r="Y23" t="n">
         <v>1119.301472762065</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.7351326064447</v>
+        <v>843.4262736305875</v>
       </c>
       <c r="C24" t="n">
-        <v>483.9820175282619</v>
+        <v>670.6731585524046</v>
       </c>
       <c r="D24" t="n">
-        <v>336.3937108872058</v>
+        <v>523.0848519113486</v>
       </c>
       <c r="E24" t="n">
-        <v>178.7841818900605</v>
+        <v>365.4753229142032</v>
       </c>
       <c r="F24" t="n">
-        <v>33.82839190667737</v>
+        <v>220.5195329308201</v>
       </c>
       <c r="G24" t="n">
-        <v>33.82839190667737</v>
+        <v>220.5195329308201</v>
       </c>
       <c r="H24" t="n">
-        <v>33.82839190667737</v>
+        <v>111.6279009577282</v>
       </c>
       <c r="I24" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="J24" t="n">
         <v>66.98092231877609</v>
       </c>
       <c r="K24" t="n">
-        <v>250.2494904826884</v>
+        <v>250.2494904826883</v>
       </c>
       <c r="L24" t="n">
-        <v>557.5263040883274</v>
+        <v>557.5263040883273</v>
       </c>
       <c r="M24" t="n">
-        <v>968.9040463298551</v>
+        <v>968.904046329855</v>
       </c>
       <c r="N24" t="n">
-        <v>1358.67017533636</v>
+        <v>1387.530396174987</v>
       </c>
       <c r="O24" t="n">
-        <v>1691.419595333869</v>
+        <v>1387.530396174987</v>
       </c>
       <c r="P24" t="n">
-        <v>1691.419595333869</v>
+        <v>1638.164600351366</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="R24" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="S24" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.419595333868</v>
       </c>
       <c r="T24" t="n">
-        <v>1691.419595333869</v>
+        <v>1683.205446842996</v>
       </c>
       <c r="U24" t="n">
-        <v>1691.107749074926</v>
+        <v>1682.893600584054</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.547509765444</v>
+        <v>1675.238650789587</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.033018098777</v>
+        <v>1422.72415912292</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.506119504355</v>
+        <v>1216.197260528498</v>
       </c>
       <c r="Y24" t="n">
-        <v>823.7776837280052</v>
+        <v>1010.468824752148</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
       <c r="C25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
       <c r="D25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
       <c r="F25" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="G25" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="I25" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="J25" t="n">
-        <v>33.82839190667737</v>
+        <v>33.82839190667736</v>
       </c>
       <c r="K25" t="n">
-        <v>45.75840284954531</v>
+        <v>45.7584028495453</v>
       </c>
       <c r="L25" t="n">
         <v>116.8283246338431</v>
       </c>
       <c r="M25" t="n">
-        <v>202.3544920394232</v>
+        <v>202.3544920394231</v>
       </c>
       <c r="N25" t="n">
         <v>290.9883002393225</v>
       </c>
       <c r="O25" t="n">
-        <v>357.5193713540687</v>
+        <v>357.5193713540685</v>
       </c>
       <c r="P25" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="Q25" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="R25" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="S25" t="n">
-        <v>391.2257148961373</v>
+        <v>391.2257148961372</v>
       </c>
       <c r="T25" t="n">
-        <v>189.2704539706284</v>
+        <v>336.9058291320469</v>
       </c>
       <c r="U25" t="n">
-        <v>126.9377814594729</v>
+        <v>274.5731566208914</v>
       </c>
       <c r="V25" t="n">
-        <v>98.04281143542539</v>
+        <v>245.678186596844</v>
       </c>
       <c r="W25" t="n">
-        <v>35.6567042189775</v>
+        <v>183.2920793803961</v>
       </c>
       <c r="X25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.82839190667737</v>
+        <v>181.463767068096</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1519.798364829467</v>
       </c>
       <c r="C26" t="n">
-        <v>1293.259972426579</v>
+        <v>1293.25997242658</v>
       </c>
       <c r="D26" t="n">
         <v>1077.206795098787</v>
       </c>
       <c r="E26" t="n">
-        <v>834.3725036288843</v>
+        <v>834.3725036288847</v>
       </c>
       <c r="F26" t="n">
-        <v>567.1181841536752</v>
+        <v>567.1181841536758</v>
       </c>
       <c r="G26" t="n">
         <v>292.7465132443035</v>
@@ -6221,7 +6221,7 @@
         <v>100.6653021457695</v>
       </c>
       <c r="I26" t="n">
-        <v>57.56598545453296</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="J26" t="n">
         <v>241.4479582448825</v>
@@ -6245,16 +6245,16 @@
         <v>2645.104448233927</v>
       </c>
       <c r="Q26" t="n">
-        <v>2845.436919506389</v>
+        <v>2845.43691950639</v>
       </c>
       <c r="R26" t="n">
-        <v>2878.299272726648</v>
+        <v>2878.299272726649</v>
       </c>
       <c r="S26" t="n">
         <v>2826.356251217134</v>
       </c>
       <c r="T26" t="n">
-        <v>2747.568548518999</v>
+        <v>2747.568548519</v>
       </c>
       <c r="U26" t="n">
         <v>2637.745822805683</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.5917247237476</v>
+        <v>680.4727261543004</v>
       </c>
       <c r="C27" t="n">
-        <v>644.8386096455647</v>
+        <v>507.7196110761176</v>
       </c>
       <c r="D27" t="n">
-        <v>497.2503030045085</v>
+        <v>360.1313044350615</v>
       </c>
       <c r="E27" t="n">
-        <v>339.6407740073632</v>
+        <v>202.5217754379161</v>
       </c>
       <c r="F27" t="n">
-        <v>194.68498402398</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="G27" t="n">
-        <v>57.56598545453296</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="H27" t="n">
-        <v>57.56598545453296</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="I27" t="n">
-        <v>57.56598545453296</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="J27" t="n">
-        <v>90.71851586663169</v>
+        <v>90.71851586663172</v>
       </c>
       <c r="K27" t="n">
         <v>273.987084030544</v>
@@ -6312,10 +6312,10 @@
         <v>581.2638976361829</v>
       </c>
       <c r="M27" t="n">
-        <v>992.6416398777106</v>
+        <v>992.6416398777105</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.306058867128</v>
+        <v>1430.306058867127</v>
       </c>
       <c r="O27" t="n">
         <v>1763.055478864635</v>
@@ -6330,25 +6330,25 @@
         <v>2129.671078680803</v>
       </c>
       <c r="S27" t="n">
-        <v>2108.323540922936</v>
+        <v>2028.555984615554</v>
       </c>
       <c r="T27" t="n">
-        <v>2053.212043033955</v>
+        <v>1829.290863292144</v>
       </c>
       <c r="U27" t="n">
-        <v>1883.655345357146</v>
+        <v>1746.536346787699</v>
       </c>
       <c r="V27" t="n">
-        <v>1649.404101882747</v>
+        <v>1512.2851033133</v>
       </c>
       <c r="W27" t="n">
-        <v>1396.88961021608</v>
+        <v>1259.770611646633</v>
       </c>
       <c r="X27" t="n">
-        <v>1190.362711621658</v>
+        <v>1053.24371305221</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.634275845308</v>
+        <v>847.5152772758609</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.9662476308172</v>
+        <v>142.9662476308173</v>
       </c>
       <c r="C28" t="n">
         <v>118.0930499226169</v>
@@ -6373,58 +6373,58 @@
         <v>103.9486554809289</v>
       </c>
       <c r="G28" t="n">
-        <v>78.7500552162068</v>
+        <v>78.75005521620683</v>
       </c>
       <c r="H28" t="n">
-        <v>61.71047408381703</v>
+        <v>61.71047408381706</v>
       </c>
       <c r="I28" t="n">
-        <v>57.56598545453296</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="J28" t="n">
         <v>127.0610018482869</v>
       </c>
       <c r="K28" t="n">
-        <v>138.9910127911549</v>
+        <v>215.6099886573581</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0609345754527</v>
+        <v>286.6799104416559</v>
       </c>
       <c r="M28" t="n">
-        <v>372.2060778472358</v>
+        <v>372.2060778472359</v>
       </c>
       <c r="N28" t="n">
-        <v>460.8398860471352</v>
+        <v>460.8398860471353</v>
       </c>
       <c r="O28" t="n">
-        <v>668.6559234899644</v>
+        <v>668.6559234899645</v>
       </c>
       <c r="P28" t="n">
-        <v>843.6472333601162</v>
+        <v>843.6472333601163</v>
       </c>
       <c r="Q28" t="n">
-        <v>925.1094470166346</v>
+        <v>925.1094470166347</v>
       </c>
       <c r="R28" t="n">
-        <v>904.6069012389503</v>
+        <v>904.6069012389504</v>
       </c>
       <c r="S28" t="n">
-        <v>828.2214659984679</v>
+        <v>828.221465998468</v>
       </c>
       <c r="T28" t="n">
-        <v>742.732718917472</v>
+        <v>742.7327189174721</v>
       </c>
       <c r="U28" t="n">
-        <v>597.9573761608133</v>
+        <v>597.9573761608134</v>
       </c>
       <c r="V28" t="n">
-        <v>486.6197358912626</v>
+        <v>486.6197358912627</v>
       </c>
       <c r="W28" t="n">
         <v>341.7909584293116</v>
       </c>
       <c r="X28" t="n">
-        <v>257.5199758715082</v>
+        <v>257.5199758715083</v>
       </c>
       <c r="Y28" t="n">
         <v>180.7153428738474</v>
@@ -6446,37 +6446,37 @@
         <v>1077.206795098788</v>
       </c>
       <c r="E29" t="n">
-        <v>834.3725036288849</v>
+        <v>834.3725036288852</v>
       </c>
       <c r="F29" t="n">
-        <v>567.1181841536759</v>
+        <v>567.1181841536761</v>
       </c>
       <c r="G29" t="n">
-        <v>292.7465132443037</v>
+        <v>292.7465132443038</v>
       </c>
       <c r="H29" t="n">
-        <v>100.6653021457698</v>
+        <v>100.6653021457695</v>
       </c>
       <c r="I29" t="n">
         <v>57.56598545453296</v>
       </c>
       <c r="J29" t="n">
-        <v>241.4479582448823</v>
+        <v>241.4479582448826</v>
       </c>
       <c r="K29" t="n">
-        <v>568.8513878567019</v>
+        <v>568.8513878567023</v>
       </c>
       <c r="L29" t="n">
-        <v>993.0018437317162</v>
+        <v>993.0018437317167</v>
       </c>
       <c r="M29" t="n">
-        <v>1464.241463383677</v>
+        <v>1464.241463383678</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.302919291118</v>
+        <v>1925.302919291119</v>
       </c>
       <c r="O29" t="n">
-        <v>2322.415405572535</v>
+        <v>2322.415405572536</v>
       </c>
       <c r="P29" t="n">
         <v>2645.104448233928</v>
@@ -6488,13 +6488,13 @@
         <v>2878.299272726648</v>
       </c>
       <c r="S29" t="n">
-        <v>2826.356251217134</v>
+        <v>2826.356251217135</v>
       </c>
       <c r="T29" t="n">
-        <v>2747.568548518999</v>
+        <v>2747.568548519</v>
       </c>
       <c r="U29" t="n">
-        <v>2637.745822805683</v>
+        <v>2637.745822805684</v>
       </c>
       <c r="V29" t="n">
         <v>2450.047707328476</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>673.4381012893192</v>
+        <v>760.2402824616825</v>
       </c>
       <c r="C30" t="n">
-        <v>500.6849862111364</v>
+        <v>587.4871673834996</v>
       </c>
       <c r="D30" t="n">
-        <v>353.0966795700803</v>
+        <v>439.8988607424434</v>
       </c>
       <c r="E30" t="n">
-        <v>339.6407740073632</v>
+        <v>282.2893317452981</v>
       </c>
       <c r="F30" t="n">
-        <v>194.6849840239801</v>
+        <v>137.333541761915</v>
       </c>
       <c r="G30" t="n">
         <v>57.56598545453296</v>
@@ -6543,16 +6543,16 @@
         <v>90.71851586663169</v>
       </c>
       <c r="K30" t="n">
-        <v>273.987084030544</v>
+        <v>273.9870840305439</v>
       </c>
       <c r="L30" t="n">
         <v>581.2638976361829</v>
       </c>
       <c r="M30" t="n">
-        <v>992.6416398777106</v>
+        <v>992.6416398777105</v>
       </c>
       <c r="N30" t="n">
-        <v>1430.306058867128</v>
+        <v>1430.306058867127</v>
       </c>
       <c r="O30" t="n">
         <v>1763.055478864635</v>
@@ -6564,28 +6564,28 @@
         <v>2129.671078680803</v>
       </c>
       <c r="R30" t="n">
-        <v>2051.29136029275</v>
+        <v>2129.671078680803</v>
       </c>
       <c r="S30" t="n">
-        <v>2021.521359750573</v>
+        <v>1964.169917488508</v>
       </c>
       <c r="T30" t="n">
-        <v>1966.409861861591</v>
+        <v>1764.904796165098</v>
       </c>
       <c r="U30" t="n">
-        <v>1739.501721922718</v>
+        <v>1682.150279660653</v>
       </c>
       <c r="V30" t="n">
-        <v>1505.250478448319</v>
+        <v>1592.052659620682</v>
       </c>
       <c r="W30" t="n">
-        <v>1252.735986781652</v>
+        <v>1339.538167954015</v>
       </c>
       <c r="X30" t="n">
-        <v>1046.209088187229</v>
+        <v>1133.011269359592</v>
       </c>
       <c r="Y30" t="n">
-        <v>840.4806524108797</v>
+        <v>927.2828335832429</v>
       </c>
     </row>
     <row r="31">
@@ -6613,28 +6613,28 @@
         <v>78.75005521620682</v>
       </c>
       <c r="H31" t="n">
-        <v>61.71047408381704</v>
+        <v>61.71047408381705</v>
       </c>
       <c r="I31" t="n">
         <v>57.56598545453296</v>
       </c>
       <c r="J31" t="n">
-        <v>57.56598545453296</v>
+        <v>127.0610018482869</v>
       </c>
       <c r="K31" t="n">
-        <v>69.49599639740092</v>
+        <v>138.9910127911549</v>
       </c>
       <c r="L31" t="n">
-        <v>140.5659181816987</v>
+        <v>351.3459009035358</v>
       </c>
       <c r="M31" t="n">
-        <v>230.9211115191527</v>
+        <v>513.491044175319</v>
       </c>
       <c r="N31" t="n">
-        <v>460.8398860471352</v>
+        <v>743.4098187033014</v>
       </c>
       <c r="O31" t="n">
-        <v>668.6559234899644</v>
+        <v>809.9408898180475</v>
       </c>
       <c r="P31" t="n">
         <v>843.6472333601162</v>
@@ -6683,16 +6683,16 @@
         <v>1021.904636735673</v>
       </c>
       <c r="E32" t="n">
-        <v>789.4926751111266</v>
+        <v>789.4926751111268</v>
       </c>
       <c r="F32" t="n">
-        <v>532.6606854812737</v>
+        <v>532.660685481274</v>
       </c>
       <c r="G32" t="n">
-        <v>268.7113444172576</v>
+        <v>268.7113444172578</v>
       </c>
       <c r="H32" t="n">
-        <v>87.05246316407988</v>
+        <v>87.05246316407985</v>
       </c>
       <c r="I32" t="n">
         <v>54.37547631819946</v>
@@ -6713,13 +6713,13 @@
         <v>1973.187037561952</v>
       </c>
       <c r="O32" t="n">
-        <v>2283.745064121076</v>
+        <v>2229.014557515286</v>
       </c>
       <c r="P32" t="n">
-        <v>2465.149140454385</v>
+        <v>2561.918525658111</v>
       </c>
       <c r="Q32" t="n">
-        <v>2675.696537208281</v>
+        <v>2718.773815909973</v>
       </c>
       <c r="R32" t="n">
         <v>2718.773815909973</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.2822170179669</v>
+        <v>777.8944330160607</v>
       </c>
       <c r="C33" t="n">
-        <v>504.5291019397841</v>
+        <v>605.1413179378778</v>
       </c>
       <c r="D33" t="n">
-        <v>356.9407952987279</v>
+        <v>457.5530112968217</v>
       </c>
       <c r="E33" t="n">
-        <v>199.3312663015826</v>
+        <v>299.9434822996764</v>
       </c>
       <c r="F33" t="n">
-        <v>54.37547631819946</v>
+        <v>154.9876923162932</v>
       </c>
       <c r="G33" t="n">
-        <v>54.37547631819946</v>
+        <v>154.9876923162932</v>
       </c>
       <c r="H33" t="n">
-        <v>54.37547631819946</v>
+        <v>132.1749853692503</v>
       </c>
       <c r="I33" t="n">
         <v>54.37547631819946</v>
@@ -6780,13 +6780,13 @@
         <v>87.52800673029819</v>
       </c>
       <c r="K33" t="n">
-        <v>270.7965748942105</v>
+        <v>270.7965748942104</v>
       </c>
       <c r="L33" t="n">
         <v>578.0733884998494</v>
       </c>
       <c r="M33" t="n">
-        <v>989.4511307413771</v>
+        <v>989.451130741377</v>
       </c>
       <c r="N33" t="n">
         <v>1427.115549730794</v>
@@ -6798,31 +6798,31 @@
         <v>2010.49917390468</v>
       </c>
       <c r="Q33" t="n">
-        <v>2126.48056954447</v>
+        <v>2126.480569544469</v>
       </c>
       <c r="R33" t="n">
-        <v>2126.48056954447</v>
+        <v>2126.480569544469</v>
       </c>
       <c r="S33" t="n">
         <v>2115.555361631958</v>
       </c>
       <c r="T33" t="n">
-        <v>1916.290240308549</v>
+        <v>2070.866193588333</v>
       </c>
       <c r="U33" t="n">
-        <v>1743.345837651365</v>
+        <v>1843.958053649459</v>
       </c>
       <c r="V33" t="n">
-        <v>1509.094594176966</v>
+        <v>1609.70681017506</v>
       </c>
       <c r="W33" t="n">
-        <v>1256.580102510299</v>
+        <v>1357.192318508393</v>
       </c>
       <c r="X33" t="n">
-        <v>1050.053203915877</v>
+        <v>1150.665419913971</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.3247681395274</v>
+        <v>944.9369841376212</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.21986588744331</v>
+        <v>80.24047104925118</v>
       </c>
       <c r="C34" t="n">
-        <v>75.76899802459906</v>
+        <v>65.78960318640696</v>
       </c>
       <c r="D34" t="n">
-        <v>75.76899802459906</v>
+        <v>69.77398414654949</v>
       </c>
       <c r="E34" t="n">
-        <v>75.76899802459906</v>
+        <v>75.768998024599</v>
       </c>
       <c r="F34" t="n">
-        <v>75.76899802459906</v>
+        <v>75.768998024599</v>
       </c>
       <c r="G34" t="n">
-        <v>60.99272760523311</v>
+        <v>60.99272760523309</v>
       </c>
       <c r="H34" t="n">
         <v>54.37547631819946</v>
@@ -6859,49 +6859,49 @@
         <v>54.37547631819946</v>
       </c>
       <c r="K34" t="n">
-        <v>66.30548726106741</v>
+        <v>66.3054872610674</v>
       </c>
       <c r="L34" t="n">
-        <v>288.8753008548819</v>
+        <v>137.3754090453652</v>
       </c>
       <c r="M34" t="n">
-        <v>374.4014682604619</v>
+        <v>222.9015764509452</v>
       </c>
       <c r="N34" t="n">
-        <v>614.5351682698779</v>
+        <v>463.0352764603613</v>
       </c>
       <c r="O34" t="n">
-        <v>681.0662393846239</v>
+        <v>529.5663475751073</v>
       </c>
       <c r="P34" t="n">
         <v>714.7725829266926</v>
       </c>
       <c r="Q34" t="n">
-        <v>778.5620966650556</v>
+        <v>768.5827018268632</v>
       </c>
       <c r="R34" t="n">
-        <v>768.4818807327275</v>
+        <v>758.5024858945351</v>
       </c>
       <c r="S34" t="n">
-        <v>702.5187753376013</v>
+        <v>692.5393804994089</v>
       </c>
       <c r="T34" t="n">
-        <v>627.4523581019614</v>
+        <v>617.4729632637691</v>
       </c>
       <c r="U34" t="n">
-        <v>493.0993451906588</v>
+        <v>483.1199503524666</v>
       </c>
       <c r="V34" t="n">
-        <v>392.1840347664643</v>
+        <v>382.204639928272</v>
       </c>
       <c r="W34" t="n">
-        <v>257.7775871498693</v>
+        <v>247.7981923116771</v>
       </c>
       <c r="X34" t="n">
-        <v>183.9289344374221</v>
+        <v>173.9495395992299</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.5466312851173</v>
+        <v>107.5672364469252</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1159.051402862871</v>
+        <v>1159.05140286287</v>
       </c>
       <c r="C35" t="n">
-        <v>982.9079302710267</v>
+        <v>982.9079302710259</v>
       </c>
       <c r="D35" t="n">
-        <v>817.2496727542778</v>
+        <v>817.2496727542771</v>
       </c>
       <c r="E35" t="n">
-        <v>624.8103010954186</v>
+        <v>624.810301095418</v>
       </c>
       <c r="F35" t="n">
-        <v>407.950901431253</v>
+        <v>407.9509014312525</v>
       </c>
       <c r="G35" t="n">
-        <v>183.9741503329246</v>
+        <v>183.9741503329245</v>
       </c>
       <c r="H35" t="n">
         <v>42.28785904543408</v>
       </c>
       <c r="I35" t="n">
-        <v>49.43827966315683</v>
+        <v>49.43827966315691</v>
       </c>
       <c r="J35" t="n">
-        <v>282.71231336031</v>
+        <v>92.03528612542331</v>
       </c>
       <c r="K35" t="n">
-        <v>468.8307766440466</v>
+        <v>278.1537494091599</v>
       </c>
       <c r="L35" t="n">
-        <v>751.6962661909779</v>
+        <v>561.0192389560912</v>
       </c>
       <c r="M35" t="n">
-        <v>1081.650919514856</v>
+        <v>890.9738922799688</v>
       </c>
       <c r="N35" t="n">
-        <v>1401.427409094213</v>
+        <v>1210.750381859327</v>
       </c>
       <c r="O35" t="n">
-        <v>1657.254929047547</v>
+        <v>1466.57790181266</v>
       </c>
       <c r="P35" t="n">
-        <v>1838.659005380856</v>
+        <v>1782.414005965376</v>
       </c>
       <c r="Q35" t="n">
         <v>2032.138538144642</v>
@@ -6962,25 +6962,25 @@
         <v>2114.392952271704</v>
       </c>
       <c r="S35" t="n">
-        <v>2112.844850573234</v>
+        <v>2112.844850573233</v>
       </c>
       <c r="T35" t="n">
         <v>2084.452067686142</v>
       </c>
       <c r="U35" t="n">
-        <v>2025.02426178387</v>
+        <v>2025.024261783869</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.721066117706</v>
+        <v>1887.721066117705</v>
       </c>
       <c r="W35" t="n">
-        <v>1728.198784110092</v>
+        <v>1728.198784110091</v>
       </c>
       <c r="X35" t="n">
-        <v>1548.139651465494</v>
+        <v>1548.139651465493</v>
       </c>
       <c r="Y35" t="n">
-        <v>1352.095192942041</v>
+        <v>1352.09519294204</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>742.9941087962525</v>
+        <v>989.0047393387913</v>
       </c>
       <c r="C36" t="n">
-        <v>570.2409937180696</v>
+        <v>816.2516242606084</v>
       </c>
       <c r="D36" t="n">
-        <v>422.6526870770134</v>
+        <v>668.6633176195523</v>
       </c>
       <c r="E36" t="n">
-        <v>265.0431580798681</v>
+        <v>511.0537886224071</v>
       </c>
       <c r="F36" t="n">
-        <v>120.0873680964849</v>
+        <v>366.0979986390239</v>
       </c>
       <c r="G36" t="n">
-        <v>120.0873680964849</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="H36" t="n">
         <v>120.0873680964849</v>
@@ -7014,13 +7014,13 @@
         <v>42.28785904543408</v>
       </c>
       <c r="J36" t="n">
-        <v>75.44038945753277</v>
+        <v>75.44038945753269</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214449</v>
       </c>
       <c r="L36" t="n">
-        <v>565.985771227084</v>
+        <v>565.9857712270839</v>
       </c>
       <c r="M36" t="n">
         <v>977.3635134686115</v>
@@ -7044,22 +7044,22 @@
         <v>2114.392952271704</v>
       </c>
       <c r="T36" t="n">
-        <v>2035.965869368525</v>
+        <v>2087.427956665591</v>
       </c>
       <c r="U36" t="n">
-        <v>1809.057729429651</v>
+        <v>1860.519816726718</v>
       </c>
       <c r="V36" t="n">
-        <v>1574.806485955252</v>
+        <v>1820.81711649779</v>
       </c>
       <c r="W36" t="n">
-        <v>1322.291994288585</v>
+        <v>1568.302624831123</v>
       </c>
       <c r="X36" t="n">
-        <v>1115.765095694162</v>
+        <v>1361.775726236701</v>
       </c>
       <c r="Y36" t="n">
-        <v>910.0366599178129</v>
+        <v>1156.047290460352</v>
       </c>
     </row>
     <row r="37">
@@ -7090,52 +7090,52 @@
         <v>42.28785904543408</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28785904543408</v>
+        <v>56.01765574377249</v>
       </c>
       <c r="J37" t="n">
-        <v>56.01765574377315</v>
+        <v>56.01765574377249</v>
       </c>
       <c r="K37" t="n">
-        <v>67.9476666866411</v>
+        <v>67.94766668664043</v>
       </c>
       <c r="L37" t="n">
-        <v>139.0175884709389</v>
+        <v>139.0175884709382</v>
       </c>
       <c r="M37" t="n">
-        <v>224.543755876519</v>
+        <v>224.5437558765183</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1775640764183</v>
+        <v>313.1775640764176</v>
       </c>
       <c r="O37" t="n">
-        <v>379.7086351911644</v>
+        <v>379.7086351911638</v>
       </c>
       <c r="P37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332324</v>
       </c>
       <c r="Q37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332324</v>
       </c>
       <c r="R37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332324</v>
       </c>
       <c r="S37" t="n">
-        <v>387.4244633037941</v>
+        <v>387.4244633037936</v>
       </c>
       <c r="T37" t="n">
-        <v>352.3306360338416</v>
+        <v>352.3306360338411</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9502130882263</v>
+        <v>257.950213088226</v>
       </c>
       <c r="V37" t="n">
-        <v>197.0074926297191</v>
+        <v>197.0074926297188</v>
       </c>
       <c r="W37" t="n">
-        <v>102.5736349788114</v>
+        <v>102.5736349788112</v>
       </c>
       <c r="X37" t="n">
-        <v>68.69757223205151</v>
+        <v>68.69757223205143</v>
       </c>
       <c r="Y37" t="n">
         <v>42.28785904543408</v>
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1159.05140286287</v>
+        <v>1159.051402862871</v>
       </c>
       <c r="C38" t="n">
-        <v>982.9079302710263</v>
+        <v>982.9079302710264</v>
       </c>
       <c r="D38" t="n">
-        <v>817.2496727542774</v>
+        <v>817.2496727542775</v>
       </c>
       <c r="E38" t="n">
-        <v>624.8103010954183</v>
+        <v>624.8103010954185</v>
       </c>
       <c r="F38" t="n">
-        <v>407.9509014312527</v>
+        <v>407.950901431253</v>
       </c>
       <c r="G38" t="n">
         <v>183.9741503329246</v>
       </c>
       <c r="H38" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I38" t="n">
-        <v>49.43827966315683</v>
+        <v>49.43827966315682</v>
       </c>
       <c r="J38" t="n">
-        <v>92.03528612542326</v>
+        <v>226.4673139448301</v>
       </c>
       <c r="K38" t="n">
-        <v>468.8307766440466</v>
+        <v>412.5857772285667</v>
       </c>
       <c r="L38" t="n">
-        <v>751.6962661909779</v>
+        <v>886.1282940103847</v>
       </c>
       <c r="M38" t="n">
-        <v>1081.650919514856</v>
+        <v>1216.082947334262</v>
       </c>
       <c r="N38" t="n">
-        <v>1535.859436913621</v>
+        <v>1535.85943691362</v>
       </c>
       <c r="O38" t="n">
         <v>1791.686956866954</v>
       </c>
       <c r="P38" t="n">
-        <v>1973.091033200263</v>
+        <v>1973.091033200262</v>
       </c>
       <c r="Q38" t="n">
         <v>2032.138538144642</v>
@@ -7202,7 +7202,7 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T38" t="n">
-        <v>2084.452067686143</v>
+        <v>2084.452067686142</v>
       </c>
       <c r="U38" t="n">
         <v>2025.02426178387</v>
@@ -7217,7 +7217,7 @@
         <v>1548.139651465494</v>
       </c>
       <c r="Y38" t="n">
-        <v>1352.09519294204</v>
+        <v>1352.095192942041</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>665.1945997452015</v>
+        <v>742.9941087962525</v>
       </c>
       <c r="C39" t="n">
-        <v>492.4414846670186</v>
+        <v>570.2409937180696</v>
       </c>
       <c r="D39" t="n">
-        <v>344.8531780259625</v>
+        <v>422.6526870770134</v>
       </c>
       <c r="E39" t="n">
-        <v>187.2436490288172</v>
+        <v>265.0431580798681</v>
       </c>
       <c r="F39" t="n">
-        <v>42.28785904543409</v>
+        <v>120.0873680964849</v>
       </c>
       <c r="G39" t="n">
-        <v>42.28785904543409</v>
+        <v>120.0873680964849</v>
       </c>
       <c r="H39" t="n">
-        <v>42.28785904543409</v>
+        <v>120.0873680964849</v>
       </c>
       <c r="I39" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J39" t="n">
-        <v>75.440389457533</v>
+        <v>75.44038945753255</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7089576214453</v>
+        <v>258.7089576214448</v>
       </c>
       <c r="L39" t="n">
-        <v>565.9857712270842</v>
+        <v>565.9857712270838</v>
       </c>
       <c r="M39" t="n">
-        <v>977.3635134686119</v>
+        <v>977.3635134686115</v>
       </c>
       <c r="N39" t="n">
-        <v>1415.027932458029</v>
+        <v>1415.027932458028</v>
       </c>
       <c r="O39" t="n">
-        <v>1747.777352455537</v>
+        <v>1747.777352455536</v>
       </c>
       <c r="P39" t="n">
         <v>1998.411556631915</v>
@@ -7275,28 +7275,28 @@
         <v>2114.392952271704</v>
       </c>
       <c r="R39" t="n">
-        <v>2036.013233883651</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="S39" t="n">
-        <v>1870.512072691355</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="T39" t="n">
-        <v>1865.795494613418</v>
+        <v>2035.965869368525</v>
       </c>
       <c r="U39" t="n">
-        <v>1731.2582203786</v>
+        <v>1809.057729429651</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.006976904201</v>
+        <v>1574.806485955252</v>
       </c>
       <c r="W39" t="n">
-        <v>1244.492485237534</v>
+        <v>1322.291994288585</v>
       </c>
       <c r="X39" t="n">
-        <v>1037.965586643111</v>
+        <v>1115.765095694162</v>
       </c>
       <c r="Y39" t="n">
-        <v>832.2371508667619</v>
+        <v>910.0366599178129</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="C40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="D40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="E40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="F40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="G40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="H40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J40" t="n">
-        <v>56.01765574377315</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="K40" t="n">
-        <v>67.9476666866411</v>
+        <v>54.21786998830202</v>
       </c>
       <c r="L40" t="n">
-        <v>139.0175884709389</v>
+        <v>125.2877917725998</v>
       </c>
       <c r="M40" t="n">
-        <v>224.543755876519</v>
+        <v>210.8139591781799</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1775640764183</v>
+        <v>299.4477673780792</v>
       </c>
       <c r="O40" t="n">
-        <v>379.7086351911644</v>
+        <v>365.9788384928253</v>
       </c>
       <c r="P40" t="n">
-        <v>413.4149787332331</v>
+        <v>399.6851820348939</v>
       </c>
       <c r="Q40" t="n">
-        <v>413.4149787332331</v>
+        <v>399.6851820348939</v>
       </c>
       <c r="R40" t="n">
         <v>413.4149787332331</v>
@@ -7372,10 +7372,10 @@
         <v>102.5736349788114</v>
       </c>
       <c r="X40" t="n">
-        <v>68.69757223205153</v>
+        <v>68.69757223205151</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>1159.05140286287</v>
       </c>
       <c r="C41" t="n">
-        <v>982.9079302710263</v>
+        <v>982.9079302710259</v>
       </c>
       <c r="D41" t="n">
-        <v>817.2496727542774</v>
+        <v>817.249672754277</v>
       </c>
       <c r="E41" t="n">
-        <v>624.8103010954184</v>
+        <v>624.8103010954178</v>
       </c>
       <c r="F41" t="n">
-        <v>407.9509014312529</v>
+        <v>407.9509014312522</v>
       </c>
       <c r="G41" t="n">
-        <v>183.9741503329245</v>
+        <v>183.9741503329246</v>
       </c>
       <c r="H41" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I41" t="n">
-        <v>42.28785904543409</v>
+        <v>49.43827966315682</v>
       </c>
       <c r="J41" t="n">
-        <v>275.5618927425874</v>
+        <v>92.03528612542323</v>
       </c>
       <c r="K41" t="n">
-        <v>461.680356026324</v>
+        <v>278.1537494091598</v>
       </c>
       <c r="L41" t="n">
-        <v>744.5458455732553</v>
+        <v>561.019238956091</v>
       </c>
       <c r="M41" t="n">
-        <v>1074.500498897133</v>
+        <v>890.9738922799686</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.276988476491</v>
+        <v>1210.750381859326</v>
       </c>
       <c r="O41" t="n">
-        <v>1650.104508429824</v>
+        <v>1601.009929632067</v>
       </c>
       <c r="P41" t="n">
-        <v>1831.508584763133</v>
+        <v>1782.414005965376</v>
       </c>
       <c r="Q41" t="n">
         <v>2032.138538144642</v>
@@ -7445,7 +7445,7 @@
         <v>2025.024261783869</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.721066117706</v>
+        <v>1887.721066117705</v>
       </c>
       <c r="W41" t="n">
         <v>1728.198784110092</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>572.8237340411455</v>
+        <v>961.9208205320884</v>
       </c>
       <c r="C42" t="n">
-        <v>400.0706189629627</v>
+        <v>789.1677054539057</v>
       </c>
       <c r="D42" t="n">
-        <v>366.0979986390239</v>
+        <v>641.5793988128496</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0979986390239</v>
+        <v>483.9698698157043</v>
       </c>
       <c r="F42" t="n">
-        <v>366.0979986390239</v>
+        <v>339.0140798323212</v>
       </c>
       <c r="G42" t="n">
         <v>228.9790000695768</v>
@@ -7485,25 +7485,25 @@
         <v>120.0873680964849</v>
       </c>
       <c r="I42" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J42" t="n">
-        <v>75.440389457533</v>
+        <v>75.44038945753282</v>
       </c>
       <c r="K42" t="n">
-        <v>258.7089576214453</v>
+        <v>258.7089576214451</v>
       </c>
       <c r="L42" t="n">
-        <v>565.9857712270842</v>
+        <v>565.985771227084</v>
       </c>
       <c r="M42" t="n">
-        <v>977.3635134686119</v>
+        <v>977.3635134686117</v>
       </c>
       <c r="N42" t="n">
-        <v>1415.027932458029</v>
+        <v>1415.027932458028</v>
       </c>
       <c r="O42" t="n">
-        <v>1747.777352455537</v>
+        <v>1747.777352455536</v>
       </c>
       <c r="P42" t="n">
         <v>1998.411556631915</v>
@@ -7512,28 +7512,28 @@
         <v>2114.392952271704</v>
       </c>
       <c r="R42" t="n">
-        <v>2036.013233883651</v>
+        <v>2036.01323388365</v>
       </c>
       <c r="S42" t="n">
         <v>1870.512072691355</v>
       </c>
       <c r="T42" t="n">
-        <v>1865.795494613418</v>
+        <v>1671.246951367945</v>
       </c>
       <c r="U42" t="n">
-        <v>1638.887354674544</v>
+        <v>1638.887354674543</v>
       </c>
       <c r="V42" t="n">
-        <v>1404.636111200145</v>
+        <v>1599.184654445616</v>
       </c>
       <c r="W42" t="n">
-        <v>1152.121619533478</v>
+        <v>1346.670162778949</v>
       </c>
       <c r="X42" t="n">
-        <v>945.5947209390555</v>
+        <v>1140.143264184527</v>
       </c>
       <c r="Y42" t="n">
-        <v>739.8662851627059</v>
+        <v>1128.963371653649</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="C43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="D43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="E43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="F43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="G43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="H43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="K43" t="n">
-        <v>54.21786998830203</v>
+        <v>54.21786998830202</v>
       </c>
       <c r="L43" t="n">
         <v>125.2877917725998</v>
@@ -7579,40 +7579,40 @@
         <v>210.8139591781799</v>
       </c>
       <c r="N43" t="n">
-        <v>313.177564076418</v>
+        <v>299.4477673780792</v>
       </c>
       <c r="O43" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928253</v>
       </c>
       <c r="P43" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348939</v>
       </c>
       <c r="Q43" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332331</v>
       </c>
       <c r="R43" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332331</v>
       </c>
       <c r="S43" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037941</v>
       </c>
       <c r="T43" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338416</v>
       </c>
       <c r="U43" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882263</v>
       </c>
       <c r="V43" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297191</v>
       </c>
       <c r="W43" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788114</v>
       </c>
       <c r="X43" t="n">
-        <v>68.69757223205147</v>
+        <v>68.69757223205151</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1159.051402862871</v>
+        <v>1159.05140286287</v>
       </c>
       <c r="C44" t="n">
-        <v>982.9079302710268</v>
+        <v>982.9079302710264</v>
       </c>
       <c r="D44" t="n">
-        <v>817.2496727542779</v>
+        <v>817.2496727542775</v>
       </c>
       <c r="E44" t="n">
-        <v>624.8103010954187</v>
+        <v>624.8103010954185</v>
       </c>
       <c r="F44" t="n">
         <v>407.9509014312528</v>
@@ -7640,31 +7640,31 @@
         <v>183.9741503329246</v>
       </c>
       <c r="H44" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I44" t="n">
-        <v>42.28785904543409</v>
+        <v>49.43827966315685</v>
       </c>
       <c r="J44" t="n">
-        <v>275.5618927425873</v>
+        <v>226.4673139448301</v>
       </c>
       <c r="K44" t="n">
-        <v>461.6803560263239</v>
+        <v>412.5857772285667</v>
       </c>
       <c r="L44" t="n">
-        <v>744.5458455732553</v>
+        <v>886.1282940103847</v>
       </c>
       <c r="M44" t="n">
-        <v>1074.500498897133</v>
+        <v>1216.082947334262</v>
       </c>
       <c r="N44" t="n">
-        <v>1394.276988476491</v>
+        <v>1535.85943691362</v>
       </c>
       <c r="O44" t="n">
-        <v>1650.104508429824</v>
+        <v>1791.686956866954</v>
       </c>
       <c r="P44" t="n">
-        <v>1831.508584763133</v>
+        <v>1973.091033200262</v>
       </c>
       <c r="Q44" t="n">
         <v>2032.138538144642</v>
@@ -7676,10 +7676,10 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T44" t="n">
-        <v>2084.452067686143</v>
+        <v>2084.452067686142</v>
       </c>
       <c r="U44" t="n">
-        <v>2025.02426178387</v>
+        <v>2025.024261783869</v>
       </c>
       <c r="V44" t="n">
         <v>1887.721066117706</v>
@@ -7691,7 +7691,7 @@
         <v>1548.139651465494</v>
       </c>
       <c r="Y44" t="n">
-        <v>1352.095192942041</v>
+        <v>1352.09519294204</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.1945997452015</v>
+        <v>549.3204217888158</v>
       </c>
       <c r="C45" t="n">
-        <v>492.4414846670186</v>
+        <v>376.5673067106329</v>
       </c>
       <c r="D45" t="n">
-        <v>344.8531780259625</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="E45" t="n">
-        <v>187.2436490288172</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="F45" t="n">
-        <v>42.28785904543409</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="G45" t="n">
-        <v>42.28785904543409</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="H45" t="n">
-        <v>42.28785904543409</v>
+        <v>120.0873680964849</v>
       </c>
       <c r="I45" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J45" t="n">
-        <v>75.440389457533</v>
+        <v>75.4403894575328</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7089576214453</v>
+        <v>258.7089576214451</v>
       </c>
       <c r="L45" t="n">
-        <v>565.9857712270843</v>
+        <v>565.9857712270841</v>
       </c>
       <c r="M45" t="n">
-        <v>977.3635134686122</v>
+        <v>977.3635134686117</v>
       </c>
       <c r="N45" t="n">
         <v>1415.027932458029</v>
       </c>
       <c r="O45" t="n">
-        <v>1747.777352455537</v>
+        <v>1747.777352455536</v>
       </c>
       <c r="P45" t="n">
         <v>1998.411556631915</v>
@@ -7749,28 +7749,28 @@
         <v>2114.392952271704</v>
       </c>
       <c r="R45" t="n">
-        <v>2114.392952271704</v>
+        <v>2036.01323388365</v>
       </c>
       <c r="S45" t="n">
-        <v>1962.882938395411</v>
+        <v>2036.01323388365</v>
       </c>
       <c r="T45" t="n">
-        <v>1958.166360317473</v>
+        <v>1836.748112560241</v>
       </c>
       <c r="U45" t="n">
-        <v>1731.2582203786</v>
+        <v>1615.384042422214</v>
       </c>
       <c r="V45" t="n">
-        <v>1497.006976904201</v>
+        <v>1381.132798947815</v>
       </c>
       <c r="W45" t="n">
-        <v>1244.492485237534</v>
+        <v>1128.618307281148</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.965586643111</v>
+        <v>922.0914086867258</v>
       </c>
       <c r="Y45" t="n">
-        <v>832.2371508667619</v>
+        <v>716.3629729103762</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="C46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="D46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="E46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="F46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="G46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="H46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="J46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
       <c r="K46" t="n">
-        <v>54.21786998830203</v>
+        <v>54.21786998830202</v>
       </c>
       <c r="L46" t="n">
         <v>125.2877917725998</v>
@@ -7816,40 +7816,40 @@
         <v>210.8139591781799</v>
       </c>
       <c r="N46" t="n">
-        <v>299.4477673780793</v>
+        <v>299.4477673780792</v>
       </c>
       <c r="O46" t="n">
-        <v>379.7086351911644</v>
+        <v>365.9788384928253</v>
       </c>
       <c r="P46" t="n">
-        <v>413.4149787332331</v>
+        <v>399.6851820348939</v>
       </c>
       <c r="Q46" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332328</v>
       </c>
       <c r="R46" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332328</v>
       </c>
       <c r="S46" t="n">
-        <v>387.4244633037941</v>
+        <v>387.4244633037939</v>
       </c>
       <c r="T46" t="n">
-        <v>352.3306360338416</v>
+        <v>352.3306360338414</v>
       </c>
       <c r="U46" t="n">
-        <v>257.9502130882263</v>
+        <v>257.9502130882262</v>
       </c>
       <c r="V46" t="n">
-        <v>197.0074926297191</v>
+        <v>197.007492629719</v>
       </c>
       <c r="W46" t="n">
         <v>102.5736349788114</v>
       </c>
       <c r="X46" t="n">
-        <v>68.69757223205153</v>
+        <v>68.69757223205148</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543408</v>
       </c>
     </row>
   </sheetData>
@@ -8459,19 +8459,19 @@
         <v>269.7536187999064</v>
       </c>
       <c r="M8" t="n">
-        <v>264.4689416007598</v>
+        <v>262.8575733500862</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O8" t="n">
-        <v>258.5562094309273</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P8" t="n">
-        <v>265.3335350655566</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8532,25 +8532,25 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L9" t="n">
         <v>174.9718844895462</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>166.3281652347453</v>
       </c>
       <c r="O9" t="n">
-        <v>177.3013342868286</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>170.5064114331408</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.3635939380398</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8772,10 +8772,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>103.35635809034</v>
       </c>
       <c r="M12" t="n">
-        <v>84.86274038606626</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>479.2856964442811</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.64727229735979</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>89.9240806709482</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.2856964442811</v>
+        <v>382.0878612411573</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>267.490848639076</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>101.3274543566071</v>
@@ -9243,7 +9243,7 @@
         <v>97.64727229735979</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>89.9240806709482</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>449.4131002370208</v>
+        <v>415.5752656978227</v>
       </c>
       <c r="O18" t="n">
-        <v>73.50628679779064</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.64727229735979</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>89.9240806709482</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>84.86274038606625</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.2856964442811</v>
+        <v>415.5752656978227</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9726,16 +9726,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>450.1339582234456</v>
+        <v>479.2856964442809</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>73.50628679779065</v>
       </c>
       <c r="P24" t="n">
-        <v>78.03541658111207</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>101.3274543566071</v>
+        <v>155.1203785813568</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540251</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540253</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540253</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>498.5160693172953</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5051698924239</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7738555799714</v>
+        <v>244.7738555799715</v>
       </c>
       <c r="D11" t="n">
-        <v>234.3934926556272</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0826233815697</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.6612460886613</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.169170625437</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92443839553164</v>
+        <v>71.92443839553171</v>
       </c>
       <c r="T11" t="n">
-        <v>98.50067277226619</v>
+        <v>77.59577119248706</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8004280973274</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3219814235482</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3188769015834</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6503590321982</v>
+        <v>248.6503590321983</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.120915016543513</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.120915016540749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3934926556272</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>260.9067956563163</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.16917062543693</v>
+        <v>63.16917062543702</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92443839553152</v>
+        <v>71.92443839553171</v>
       </c>
       <c r="T14" t="n">
-        <v>98.50067277226619</v>
+        <v>98.50067277226627</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2253455572957</v>
+        <v>19.72590482386298</v>
       </c>
       <c r="V14" t="n">
-        <v>111.0794070666857</v>
+        <v>206.3219814235482</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3188769015834</v>
+        <v>228.3188769015835</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6503590321983</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.120915016540181</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.120915016543786</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.229532815939493e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26323,13 +26323,13 @@
         <v>156973.1054491113</v>
       </c>
       <c r="F2" t="n">
-        <v>156973.1054491112</v>
+        <v>156973.1054491113</v>
       </c>
       <c r="G2" t="n">
         <v>183131.8669383607</v>
       </c>
       <c r="H2" t="n">
-        <v>183131.8669383606</v>
+        <v>183131.8669383607</v>
       </c>
       <c r="I2" t="n">
         <v>183131.8669383607</v>
@@ -26341,16 +26341,16 @@
         <v>183131.8669383607</v>
       </c>
       <c r="L2" t="n">
+        <v>183131.8669383606</v>
+      </c>
+      <c r="M2" t="n">
         <v>183131.8669383607</v>
-      </c>
-      <c r="M2" t="n">
-        <v>183131.8669383608</v>
       </c>
       <c r="N2" t="n">
         <v>183131.8669383608</v>
       </c>
       <c r="O2" t="n">
-        <v>183131.8669383607</v>
+        <v>183131.8669383608</v>
       </c>
       <c r="P2" t="n">
         <v>183131.8669383608</v>
@@ -26372,13 +26372,13 @@
         <v>12388.34816274097</v>
       </c>
       <c r="E3" t="n">
-        <v>314982.2527306583</v>
+        <v>314982.2527306582</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81695.27251532873</v>
+        <v>81695.27251532885</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89949.75775285078</v>
+        <v>89949.75775285091</v>
       </c>
       <c r="M3" t="n">
-        <v>89443.29579105621</v>
+        <v>89443.29579105627</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32474.39724473849</v>
+        <v>32474.39724473834</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26436,13 +26436,13 @@
         <v>299551.6789532357</v>
       </c>
       <c r="I4" t="n">
-        <v>299551.6789532357</v>
+        <v>299551.6789532358</v>
       </c>
       <c r="J4" t="n">
+        <v>295003.1184993647</v>
+      </c>
+      <c r="K4" t="n">
         <v>295003.1184993646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>295003.1184993647</v>
       </c>
       <c r="L4" t="n">
         <v>294796.8040555408</v>
@@ -26451,7 +26451,7 @@
         <v>294074.4037443044</v>
       </c>
       <c r="N4" t="n">
-        <v>294074.4037443043</v>
+        <v>294074.4037443044</v>
       </c>
       <c r="O4" t="n">
         <v>294074.4037443044</v>
@@ -26476,22 +26476,22 @@
         <v>36052.38694361346</v>
       </c>
       <c r="E5" t="n">
-        <v>38774.97418276354</v>
+        <v>38774.97418276353</v>
       </c>
       <c r="F5" t="n">
-        <v>38774.97418276354</v>
+        <v>38774.97418276353</v>
       </c>
       <c r="G5" t="n">
-        <v>47360.0240141275</v>
+        <v>47360.02401412751</v>
       </c>
       <c r="H5" t="n">
-        <v>47360.0240141275</v>
+        <v>47360.02401412751</v>
       </c>
       <c r="I5" t="n">
-        <v>47360.0240141275</v>
+        <v>47360.02401412749</v>
       </c>
       <c r="J5" t="n">
-        <v>58539.03099407722</v>
+        <v>58539.03099407723</v>
       </c>
       <c r="K5" t="n">
         <v>58539.03099407723</v>
@@ -26503,10 +26503,10 @@
         <v>51121.93893162075</v>
       </c>
       <c r="N5" t="n">
-        <v>51121.93893162075</v>
+        <v>51121.93893162074</v>
       </c>
       <c r="O5" t="n">
-        <v>51121.93893162075</v>
+        <v>51121.93893162074</v>
       </c>
       <c r="P5" t="n">
         <v>51121.93893162075</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241073.2533663534</v>
+        <v>-241077.6609435014</v>
       </c>
       <c r="C6" t="n">
-        <v>-241073.2533663534</v>
+        <v>-241077.6609435013</v>
       </c>
       <c r="D6" t="n">
         <v>-248820.6217486211</v>
       </c>
       <c r="E6" t="n">
-        <v>-430238.4446618564</v>
+        <v>-430529.0975672924</v>
       </c>
       <c r="F6" t="n">
-        <v>-115256.1919311981</v>
+        <v>-115546.8448366341</v>
       </c>
       <c r="G6" t="n">
-        <v>-245475.1085443312</v>
+        <v>-245475.1085443313</v>
       </c>
       <c r="H6" t="n">
-        <v>-163779.8360290025</v>
+        <v>-163779.8360290026</v>
       </c>
       <c r="I6" t="n">
-        <v>-163779.8360290025</v>
+        <v>-163779.8360290026</v>
       </c>
       <c r="J6" t="n">
-        <v>-280519.6663777589</v>
+        <v>-280519.666377759</v>
       </c>
       <c r="K6" t="n">
         <v>-170410.2825550812</v>
       </c>
       <c r="L6" t="n">
-        <v>-258596.3718197862</v>
+        <v>-258596.3718197865</v>
       </c>
       <c r="M6" t="n">
-        <v>-251507.7715286205</v>
+        <v>-251507.7715286207</v>
       </c>
       <c r="N6" t="n">
-        <v>-162064.4757375643</v>
+        <v>-162064.4757375642</v>
       </c>
       <c r="O6" t="n">
-        <v>-194538.8729823029</v>
+        <v>-194538.8729823026</v>
       </c>
       <c r="P6" t="n">
-        <v>-162064.4757375643</v>
+        <v>-162064.4757375644</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F2" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G2" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="H2" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="I2" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="J2" t="n">
         <v>142.712087200084</v>
@@ -26713,7 +26713,7 @@
         <v>142.712087200084</v>
       </c>
       <c r="L2" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="M2" t="n">
         <v>192.603057813017</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.037595862767</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="F3" t="n">
         <v>128.037595862767</v>
@@ -26808,10 +26808,10 @@
         <v>422.8548988334672</v>
       </c>
       <c r="I4" t="n">
-        <v>422.8548988334671</v>
+        <v>422.854898833467</v>
       </c>
       <c r="J4" t="n">
-        <v>719.574818181662</v>
+        <v>719.5748181816622</v>
       </c>
       <c r="K4" t="n">
         <v>719.5748181816621</v>
@@ -26823,13 +26823,13 @@
         <v>528.598238067926</v>
       </c>
       <c r="N4" t="n">
-        <v>528.5982380679261</v>
+        <v>528.598238067926</v>
       </c>
       <c r="O4" t="n">
-        <v>528.5982380679261</v>
+        <v>528.598238067926</v>
       </c>
       <c r="P4" t="n">
-        <v>528.5982380679261</v>
+        <v>528.598238067926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102.1190906441609</v>
+        <v>102.1190906441611</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.59299655592305</v>
+        <v>40.59299655592291</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4371971910635</v>
+        <v>112.4371971910636</v>
       </c>
       <c r="M2" t="n">
-        <v>39.57286406603043</v>
+        <v>39.57286406603049</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592311</v>
+        <v>40.59299655592292</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.037595862767</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>382.9735346292983</v>
+        <v>382.9735346292984</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.7199193481948</v>
+        <v>296.7199193481952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.1190906441609</v>
+        <v>102.1190906441611</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592305</v>
+        <v>40.59299655592291</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="M4" t="n">
-        <v>382.9735346292983</v>
+        <v>382.9735346292984</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.8350457872262</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27862,16 +27862,16 @@
         <v>343.2366715511186</v>
       </c>
       <c r="F8" t="n">
-        <v>387.6804004279023</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>380.3865369473614</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.805707547067</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C9" t="n">
-        <v>131.1442197232321</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>103.6248678793804</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27950,7 +27950,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>46.62217926130283</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>214.8618411589681</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>164.5802654043094</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.7897872144172</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>126.6215283000006</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28032,10 +28032,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>48.9574807236101</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>182.4760427572537</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>188.4511017873388</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>246.1709061868954</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>217.8088454759073</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="C11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="D11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="E11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="H11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5177910180046</v>
+        <v>109.5177910180045</v>
       </c>
       <c r="S11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="T11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="W11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="X11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
     </row>
     <row r="12">
@@ -28169,19 +28169,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="D12" t="n">
-        <v>96.89933375104599</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="E12" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="H12" t="n">
         <v>107.8027156533609</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.595921204173</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2112400989712</v>
+        <v>19.30341254687301</v>
       </c>
       <c r="T12" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U12" t="n">
-        <v>122.2112400989712</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>122.2112400989712</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.2112400989712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="C13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="E13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="H13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="I13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="J13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="K13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="L13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="M13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="N13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="O13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="P13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="R13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="S13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="T13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="V13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="W13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="X13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="C14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="D14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="E14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="H14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>109.5177910180046</v>
       </c>
       <c r="S14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="T14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="W14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="X14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2112400989712</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>77.02151396054033</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>77.59592120417301</v>
       </c>
       <c r="S15" t="n">
-        <v>122.2112400989712</v>
+        <v>81.9164020618034</v>
       </c>
       <c r="T15" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U15" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="V15" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="W15" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="X15" t="n">
-        <v>19.30341254687312</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="C16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="E16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="I16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="J16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="K16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="L16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="M16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="N16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="O16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="P16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="R16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="S16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="T16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="U16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="V16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="W16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="X16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.2112400989712</v>
+        <v>122.2112400989711</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="C17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="D17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="E17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="F17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="G17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="H17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="I17" t="n">
         <v>185.3804107244081</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5177910180045</v>
+        <v>109.5177910180046</v>
       </c>
       <c r="S17" t="n">
         <v>194.1356784945028</v>
@@ -28618,19 +28618,19 @@
         <v>220.7119128712374</v>
       </c>
       <c r="U17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>31.37409412326718</v>
       </c>
       <c r="G18" t="n">
         <v>135.7478085837526</v>
@@ -28661,7 +28661,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I18" t="n">
-        <v>42.48529720443147</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S18" t="n">
         <v>163.8461495803725</v>
@@ -28697,7 +28697,7 @@
         <v>197.2724701101754</v>
       </c>
       <c r="U18" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.42702290057035</v>
+        <v>60.42702290057036</v>
       </c>
       <c r="R19" t="n">
         <v>163.0096075199914</v>
@@ -28773,22 +28773,22 @@
         <v>218.3336680881615</v>
       </c>
       <c r="T19" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="U19" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V19" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W19" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X19" t="n">
-        <v>224.3303307431321</v>
+        <v>174.3848626672152</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.82858161865229</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="C20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="D20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="E20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="F20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="G20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="H20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="I20" t="n">
         <v>185.3804107244081</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>109.5177910180045</v>
+        <v>109.5177910180046</v>
       </c>
       <c r="S20" t="n">
         <v>194.1356784945028</v>
@@ -28855,19 +28855,19 @@
         <v>220.7119128712374</v>
       </c>
       <c r="U20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I21" t="n">
-        <v>77.02151396054033</v>
+        <v>47.91142692104809</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>77.59592120417301</v>
       </c>
       <c r="S21" t="n">
-        <v>163.8461495803725</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.2724701101754</v>
       </c>
       <c r="U21" t="n">
-        <v>31.37409412326724</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V21" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29001,28 +29001,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.42702290057035</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S22" t="n">
-        <v>21.41357583904554</v>
+        <v>81.8405987396157</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="U22" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V22" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W22" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X22" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="C23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="D23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="E23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="F23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="G23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="H23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="I23" t="n">
         <v>185.3804107244081</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5177910180045</v>
+        <v>109.5177910180046</v>
       </c>
       <c r="S23" t="n">
         <v>194.1356784945028</v>
@@ -29092,19 +29092,19 @@
         <v>220.7119128712374</v>
       </c>
       <c r="U23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="Y23" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>135.7478085837526</v>
       </c>
       <c r="H24" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>77.02151396054033</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,13 +29168,13 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2724701101754</v>
+        <v>189.1404631042128</v>
       </c>
       <c r="U24" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V24" t="n">
-        <v>31.37409412326741</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.6587014621588</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.42702290057035</v>
+        <v>60.42702290057036</v>
       </c>
       <c r="R25" t="n">
         <v>163.0096075199914</v>
@@ -29247,19 +29247,19 @@
         <v>218.3336680881615</v>
       </c>
       <c r="T25" t="n">
-        <v>27.41023849401617</v>
+        <v>173.5692599038206</v>
       </c>
       <c r="U25" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="V25" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="W25" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="X25" t="n">
-        <v>224.3303307431321</v>
+        <v>224.3303307431322</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29308,7 +29308,7 @@
         <v>142.712087200084</v>
       </c>
       <c r="N26" t="n">
-        <v>142.7120872000837</v>
+        <v>142.712087200084</v>
       </c>
       <c r="O26" t="n">
         <v>142.712087200084</v>
@@ -29320,7 +29320,7 @@
         <v>142.712087200084</v>
       </c>
       <c r="R26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000845</v>
       </c>
       <c r="S26" t="n">
         <v>142.712087200084</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H27" t="n">
         <v>107.8027156533609</v>
@@ -29402,13 +29402,13 @@
         <v>77.59592120417301</v>
       </c>
       <c r="S27" t="n">
+        <v>63.74220645577583</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>142.712087200084</v>
-      </c>
-      <c r="T27" t="n">
-        <v>142.712087200084</v>
-      </c>
-      <c r="U27" t="n">
-        <v>56.77792783944446</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29457,13 +29457,13 @@
         <v>142.712087200084</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>77.39290491535678</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>77.39290491535664</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>56.77792783944442</v>
       </c>
       <c r="H30" t="n">
         <v>107.8027156533609</v>
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S30" t="n">
-        <v>134.3738490436172</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>142.712087200084</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29691,25 +29691,25 @@
         <v>142.712087200084</v>
       </c>
       <c r="J31" t="n">
-        <v>72.51510094376683</v>
+        <v>142.712087200084</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="M31" t="n">
-        <v>4.877803971589799</v>
+        <v>77.39290491535665</v>
       </c>
       <c r="N31" t="n">
         <v>142.712087200084</v>
       </c>
       <c r="O31" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>142.712087200084</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="C32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="D32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="E32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="F32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="G32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="H32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="I32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="J32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="K32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="L32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="M32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="N32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="O32" t="n">
-        <v>55.28334000584863</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.0301937469865</v>
+        <v>98.79574273483084</v>
       </c>
       <c r="R32" t="n">
-        <v>153.0301937469865</v>
+        <v>109.5177910180046</v>
       </c>
       <c r="S32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="T32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="U32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="V32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="W32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="X32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Y32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>135.7478085837526</v>
       </c>
       <c r="H33" t="n">
-        <v>107.8027156533609</v>
+        <v>85.21813577578845</v>
       </c>
       <c r="I33" t="n">
-        <v>77.02151396054033</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,13 +29876,13 @@
         <v>77.59592120417301</v>
       </c>
       <c r="S33" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="U33" t="n">
-        <v>53.42409990887296</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="C34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="H34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="I34" t="n">
         <v>146.8151309430752</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>153.0301937469865</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Q34" t="n">
-        <v>124.8608751615431</v>
+        <v>114.7806783552881</v>
       </c>
       <c r="R34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="T34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="W34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="X34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
     </row>
     <row r="35">
@@ -30007,28 +30007,28 @@
         <v>192.603057813017</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>135.7899270903097</v>
+      </c>
+      <c r="Q35" t="n">
         <v>192.603057813017</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>135.7899270903098</v>
       </c>
       <c r="R35" t="n">
         <v>192.603057813017</v>
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30116,13 +30116,13 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T36" t="n">
-        <v>119.6296580360279</v>
+        <v>170.5771244601236</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30162,10 +30162,10 @@
         <v>159.5812725211499</v>
       </c>
       <c r="I37" t="n">
-        <v>146.8151309430752</v>
+        <v>160.6836124565484</v>
       </c>
       <c r="J37" t="n">
-        <v>86.38358245724064</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.42702290057035</v>
+        <v>60.42702290057036</v>
       </c>
       <c r="R37" t="n">
         <v>163.0096075199914</v>
@@ -30244,19 +30244,19 @@
         <v>192.603057813017</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>135.78992709031</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>192.603057813017</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7899270903104</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I39" t="n">
-        <v>77.02151396054033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T39" t="n">
-        <v>192.603057813017</v>
+        <v>119.6296580360279</v>
       </c>
       <c r="U39" t="n">
-        <v>91.44715704701528</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J40" t="n">
-        <v>86.38358245724064</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.42702290057035</v>
+        <v>60.42702290057036</v>
       </c>
       <c r="R40" t="n">
-        <v>163.0096075199914</v>
+        <v>176.8780890334653</v>
       </c>
       <c r="S40" t="n">
         <v>192.603057813017</v>
@@ -30478,31 +30478,31 @@
         <v>192.603057813017</v>
       </c>
       <c r="I41" t="n">
-        <v>185.3804107244081</v>
+        <v>192.603057813017</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>135.7899270903098</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>192.603057813017</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>143.012574178919</v>
       </c>
       <c r="R41" t="n">
         <v>192.603057813017</v>
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>112.4795294539462</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>26.81307961863571</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30590,13 +30590,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>192.603057813017</v>
       </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
     </row>
     <row r="43">
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>13.86848151347345</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.42702290057035</v>
+        <v>74.29550441404426</v>
       </c>
       <c r="R43" t="n">
         <v>163.0096075199914</v>
@@ -30715,17 +30715,17 @@
         <v>192.603057813017</v>
       </c>
       <c r="I44" t="n">
-        <v>185.3804107244081</v>
+        <v>192.603057813017</v>
       </c>
       <c r="J44" t="n">
+        <v>135.7899270903099</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>192.603057813017</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.012574178919</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>192.603057813017</v>
@@ -30782,19 +30782,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.7478085837526</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>77.02151396054033</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.59592120417301</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.85123584284224</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T45" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>5.488629102838473</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.86848151347381</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.42702290057035</v>
+        <v>74.29550441404396</v>
       </c>
       <c r="R46" t="n">
         <v>163.0096075199914</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5147240034684096</v>
+        <v>0.51472400346841</v>
       </c>
       <c r="H11" t="n">
-        <v>5.271417200520852</v>
+        <v>5.271417200520855</v>
       </c>
       <c r="I11" t="n">
-        <v>19.84389714371588</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J11" t="n">
-        <v>43.68655638937697</v>
+        <v>43.686556389377</v>
       </c>
       <c r="K11" t="n">
-        <v>65.47482345619477</v>
+        <v>65.4748234561948</v>
       </c>
       <c r="L11" t="n">
-        <v>81.22730817734113</v>
+        <v>81.22730817734117</v>
       </c>
       <c r="M11" t="n">
-        <v>90.38103117402245</v>
+        <v>90.3810311740225</v>
       </c>
       <c r="N11" t="n">
-        <v>91.84349074887709</v>
+        <v>91.84349074887713</v>
       </c>
       <c r="O11" t="n">
-        <v>86.72520393938808</v>
+        <v>86.72520393938812</v>
       </c>
       <c r="P11" t="n">
-        <v>74.01795510376171</v>
+        <v>74.01795510376174</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.58440172954926</v>
+        <v>55.58440172954929</v>
       </c>
       <c r="R11" t="n">
-        <v>32.33303168287252</v>
+        <v>32.33303168287253</v>
       </c>
       <c r="S11" t="n">
         <v>11.7292732290364</v>
       </c>
       <c r="T11" t="n">
-        <v>2.253204325182965</v>
+        <v>2.253204325182966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04117792027747277</v>
+        <v>0.04117792027747279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2754016212897253</v>
+        <v>0.2754016212897254</v>
       </c>
       <c r="H12" t="n">
-        <v>2.659799868771821</v>
+        <v>2.659799868771822</v>
       </c>
       <c r="I12" t="n">
-        <v>9.482029504931331</v>
+        <v>9.482029504931337</v>
       </c>
       <c r="J12" t="n">
-        <v>26.01941370264023</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K12" t="n">
-        <v>44.47132232905182</v>
+        <v>44.47132232905184</v>
       </c>
       <c r="L12" t="n">
-        <v>59.79718097345548</v>
+        <v>59.79718097345551</v>
       </c>
       <c r="M12" t="n">
-        <v>69.78048974520802</v>
+        <v>69.78048974520804</v>
       </c>
       <c r="N12" t="n">
-        <v>71.62737167043605</v>
+        <v>71.62737167043608</v>
       </c>
       <c r="O12" t="n">
-        <v>65.52505153554266</v>
+        <v>65.52505153554269</v>
       </c>
       <c r="P12" t="n">
-        <v>52.58963064785991</v>
+        <v>52.58963064785993</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.15477537726388</v>
+        <v>35.1547753772639</v>
       </c>
       <c r="R12" t="n">
-        <v>17.09905855691821</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S12" t="n">
-        <v>5.115464325271867</v>
+        <v>5.115464325271869</v>
       </c>
       <c r="T12" t="n">
-        <v>1.110061798093234</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0181185277164293</v>
+        <v>0.01811852771642931</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2308874679492519</v>
+        <v>0.2308874679492521</v>
       </c>
       <c r="H13" t="n">
-        <v>2.052799487766987</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I13" t="n">
-        <v>6.943415854328415</v>
+        <v>6.943415854328419</v>
       </c>
       <c r="J13" t="n">
-        <v>16.32374398401211</v>
+        <v>16.32374398401212</v>
       </c>
       <c r="K13" t="n">
-        <v>26.82492582174036</v>
+        <v>26.82492582174037</v>
       </c>
       <c r="L13" t="n">
-        <v>34.3266695531097</v>
+        <v>34.32666955310972</v>
       </c>
       <c r="M13" t="n">
-        <v>36.19266008953592</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N13" t="n">
-        <v>35.33207952717964</v>
+        <v>35.33207952717966</v>
       </c>
       <c r="O13" t="n">
-        <v>32.63489410613609</v>
+        <v>32.63489410613611</v>
       </c>
       <c r="P13" t="n">
-        <v>27.92478975997133</v>
+        <v>27.92478975997135</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.33367697527782</v>
+        <v>19.33367697527783</v>
       </c>
       <c r="R13" t="n">
         <v>10.38154014979091</v>
       </c>
       <c r="S13" t="n">
-        <v>4.023738873261054</v>
+        <v>4.023738873261055</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9865191812377127</v>
+        <v>0.9865191812377131</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01259386188814103</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H17" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I17" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J17" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K17" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L17" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M17" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N17" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O17" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P17" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R17" t="n">
         <v>32.33303168287252</v>
@@ -32309,40 +32309,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I18" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J18" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K18" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L18" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M18" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N18" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O18" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P18" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R18" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S18" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T18" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U18" t="n">
         <v>0.0181185277164293</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H19" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I19" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J19" t="n">
         <v>16.32374398401211</v>
@@ -32397,19 +32397,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L19" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M19" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N19" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O19" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P19" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q19" t="n">
         <v>19.33367697527782</v>
@@ -32421,7 +32421,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U19" t="n">
         <v>0.01259386188814103</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H20" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I20" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J20" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K20" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L20" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M20" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N20" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O20" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P20" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R20" t="n">
         <v>32.33303168287252</v>
@@ -32546,40 +32546,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I21" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J21" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K21" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L21" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M21" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N21" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O21" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P21" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R21" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S21" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T21" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U21" t="n">
         <v>0.0181185277164293</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H22" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I22" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J22" t="n">
         <v>16.32374398401211</v>
@@ -32634,19 +32634,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L22" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M22" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N22" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O22" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P22" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q22" t="n">
         <v>19.33367697527782</v>
@@ -32658,7 +32658,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U22" t="n">
         <v>0.01259386188814103</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H23" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I23" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J23" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K23" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L23" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M23" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N23" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O23" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P23" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R23" t="n">
         <v>32.33303168287252</v>
@@ -32783,40 +32783,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I24" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J24" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K24" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L24" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M24" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N24" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O24" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P24" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R24" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S24" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T24" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U24" t="n">
         <v>0.0181185277164293</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H25" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I25" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J25" t="n">
         <v>16.32374398401211</v>
@@ -32871,19 +32871,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L25" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M25" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N25" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O25" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P25" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q25" t="n">
         <v>19.33367697527782</v>
@@ -32895,7 +32895,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U25" t="n">
         <v>0.01259386188814103</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H26" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I26" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J26" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K26" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L26" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M26" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N26" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O26" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P26" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R26" t="n">
         <v>32.33303168287252</v>
@@ -33020,40 +33020,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I27" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J27" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K27" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L27" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M27" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N27" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O27" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P27" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R27" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S27" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T27" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U27" t="n">
         <v>0.0181185277164293</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H28" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I28" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J28" t="n">
         <v>16.32374398401211</v>
@@ -33108,19 +33108,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L28" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M28" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N28" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O28" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P28" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q28" t="n">
         <v>19.33367697527782</v>
@@ -33132,7 +33132,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U28" t="n">
         <v>0.01259386188814103</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H29" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I29" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J29" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K29" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L29" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M29" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N29" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O29" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P29" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R29" t="n">
         <v>32.33303168287252</v>
@@ -33257,40 +33257,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I30" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J30" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K30" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L30" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M30" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N30" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O30" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P30" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R30" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S30" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T30" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U30" t="n">
         <v>0.0181185277164293</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H31" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I31" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J31" t="n">
         <v>16.32374398401211</v>
@@ -33345,19 +33345,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L31" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M31" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N31" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O31" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P31" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q31" t="n">
         <v>19.33367697527782</v>
@@ -33369,7 +33369,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U31" t="n">
         <v>0.01259386188814103</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H32" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I32" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J32" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K32" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L32" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M32" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N32" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O32" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P32" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R32" t="n">
         <v>32.33303168287252</v>
@@ -33494,40 +33494,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I33" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J33" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K33" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L33" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M33" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N33" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O33" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P33" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R33" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S33" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T33" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U33" t="n">
         <v>0.0181185277164293</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H34" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I34" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J34" t="n">
         <v>16.32374398401211</v>
@@ -33582,19 +33582,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L34" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M34" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N34" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O34" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P34" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q34" t="n">
         <v>19.33367697527782</v>
@@ -33606,7 +33606,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U34" t="n">
         <v>0.01259386188814103</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H35" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I35" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J35" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K35" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L35" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M35" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N35" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O35" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P35" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R35" t="n">
         <v>32.33303168287252</v>
@@ -33731,40 +33731,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I36" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J36" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K36" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L36" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M36" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N36" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O36" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P36" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R36" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S36" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T36" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U36" t="n">
         <v>0.0181185277164293</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H37" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I37" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J37" t="n">
         <v>16.32374398401211</v>
@@ -33819,19 +33819,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L37" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M37" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N37" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O37" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P37" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q37" t="n">
         <v>19.33367697527782</v>
@@ -33843,7 +33843,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U37" t="n">
         <v>0.01259386188814103</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H38" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I38" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J38" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K38" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L38" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M38" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N38" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O38" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P38" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R38" t="n">
         <v>32.33303168287252</v>
@@ -33968,40 +33968,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I39" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J39" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K39" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L39" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M39" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N39" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O39" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P39" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R39" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S39" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T39" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U39" t="n">
         <v>0.0181185277164293</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H40" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I40" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J40" t="n">
         <v>16.32374398401211</v>
@@ -34056,19 +34056,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L40" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M40" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N40" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O40" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P40" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q40" t="n">
         <v>19.33367697527782</v>
@@ -34080,7 +34080,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U40" t="n">
         <v>0.01259386188814103</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H41" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I41" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J41" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K41" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L41" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M41" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N41" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O41" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P41" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R41" t="n">
         <v>32.33303168287252</v>
@@ -34205,40 +34205,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I42" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J42" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K42" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L42" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M42" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N42" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O42" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P42" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R42" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S42" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T42" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U42" t="n">
         <v>0.0181185277164293</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H43" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I43" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J43" t="n">
         <v>16.32374398401211</v>
@@ -34293,19 +34293,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L43" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M43" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N43" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O43" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P43" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q43" t="n">
         <v>19.33367697527782</v>
@@ -34317,7 +34317,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U43" t="n">
         <v>0.01259386188814103</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5147240034684097</v>
+        <v>0.5147240034684096</v>
       </c>
       <c r="H44" t="n">
-        <v>5.271417200520853</v>
+        <v>5.271417200520852</v>
       </c>
       <c r="I44" t="n">
-        <v>19.84389714371589</v>
+        <v>19.84389714371588</v>
       </c>
       <c r="J44" t="n">
-        <v>43.68655638937699</v>
+        <v>43.68655638937697</v>
       </c>
       <c r="K44" t="n">
-        <v>65.47482345619478</v>
+        <v>65.47482345619477</v>
       </c>
       <c r="L44" t="n">
-        <v>81.22730817734114</v>
+        <v>81.22730817734113</v>
       </c>
       <c r="M44" t="n">
-        <v>90.38103117402248</v>
+        <v>90.38103117402245</v>
       </c>
       <c r="N44" t="n">
-        <v>91.8434907488771</v>
+        <v>91.84349074887709</v>
       </c>
       <c r="O44" t="n">
-        <v>86.72520393938809</v>
+        <v>86.72520393938808</v>
       </c>
       <c r="P44" t="n">
-        <v>74.01795510376172</v>
+        <v>74.01795510376171</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.58440172954928</v>
+        <v>55.58440172954926</v>
       </c>
       <c r="R44" t="n">
         <v>32.33303168287252</v>
@@ -34442,40 +34442,40 @@
         <v>2.659799868771821</v>
       </c>
       <c r="I45" t="n">
-        <v>9.482029504931333</v>
+        <v>9.482029504931331</v>
       </c>
       <c r="J45" t="n">
-        <v>26.01941370264024</v>
+        <v>26.01941370264023</v>
       </c>
       <c r="K45" t="n">
-        <v>44.47132232905183</v>
+        <v>44.47132232905182</v>
       </c>
       <c r="L45" t="n">
-        <v>59.7971809734555</v>
+        <v>59.79718097345548</v>
       </c>
       <c r="M45" t="n">
-        <v>69.78048974520803</v>
+        <v>69.78048974520802</v>
       </c>
       <c r="N45" t="n">
-        <v>71.62737167043606</v>
+        <v>71.62737167043605</v>
       </c>
       <c r="O45" t="n">
-        <v>65.52505153554267</v>
+        <v>65.52505153554266</v>
       </c>
       <c r="P45" t="n">
-        <v>52.58963064785992</v>
+        <v>52.58963064785991</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.15477537726389</v>
+        <v>35.15477537726388</v>
       </c>
       <c r="R45" t="n">
-        <v>17.09905855691822</v>
+        <v>17.09905855691821</v>
       </c>
       <c r="S45" t="n">
-        <v>5.115464325271868</v>
+        <v>5.115464325271867</v>
       </c>
       <c r="T45" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093234</v>
       </c>
       <c r="U45" t="n">
         <v>0.0181185277164293</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.230887467949252</v>
+        <v>0.2308874679492519</v>
       </c>
       <c r="H46" t="n">
-        <v>2.052799487766988</v>
+        <v>2.052799487766987</v>
       </c>
       <c r="I46" t="n">
-        <v>6.943415854328417</v>
+        <v>6.943415854328415</v>
       </c>
       <c r="J46" t="n">
         <v>16.32374398401211</v>
@@ -34530,19 +34530,19 @@
         <v>26.82492582174036</v>
       </c>
       <c r="L46" t="n">
-        <v>34.32666955310971</v>
+        <v>34.3266695531097</v>
       </c>
       <c r="M46" t="n">
-        <v>36.19266008953593</v>
+        <v>36.19266008953592</v>
       </c>
       <c r="N46" t="n">
-        <v>35.33207952717965</v>
+        <v>35.33207952717964</v>
       </c>
       <c r="O46" t="n">
-        <v>32.6348941061361</v>
+        <v>32.63489410613609</v>
       </c>
       <c r="P46" t="n">
-        <v>27.92478975997134</v>
+        <v>27.92478975997133</v>
       </c>
       <c r="Q46" t="n">
         <v>19.33367697527782</v>
@@ -34554,7 +34554,7 @@
         <v>4.023738873261054</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9865191812377129</v>
+        <v>0.9865191812377127</v>
       </c>
       <c r="U46" t="n">
         <v>0.01259386188814103</v>
@@ -35179,19 +35179,19 @@
         <v>39.88136420416884</v>
       </c>
       <c r="M8" t="n">
+        <v>38.26999595349533</v>
+      </c>
+      <c r="N8" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>34.21045329478271</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="O9" t="n">
-        <v>38.26999595349533</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.02727925481456</v>
+        <v>43.02727925481458</v>
       </c>
       <c r="K11" t="n">
         <v>187.9984477613501</v>
@@ -35419,7 +35419,7 @@
         <v>333.2875286099774</v>
       </c>
       <c r="N11" t="n">
-        <v>323.0065551306644</v>
+        <v>323.0065551306645</v>
       </c>
       <c r="O11" t="n">
         <v>258.4116363164987</v>
@@ -35428,7 +35428,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.64394438826188</v>
+        <v>59.64394438826191</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.48740445666539</v>
+        <v>33.4874044566654</v>
       </c>
       <c r="K12" t="n">
         <v>185.1197658221336</v>
       </c>
       <c r="L12" t="n">
-        <v>310.3806198036757</v>
+        <v>28.06301877841811</v>
       </c>
       <c r="M12" t="n">
-        <v>16.06254705730641</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N12" t="n">
         <v>422.8548988334672</v>
@@ -35504,10 +35504,10 @@
         <v>336.110525250008</v>
       </c>
       <c r="P12" t="n">
-        <v>253.1658628044225</v>
+        <v>253.1658628044226</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.69613915520438</v>
+        <v>49.6961391552043</v>
       </c>
       <c r="K13" t="n">
-        <v>134.2617562028782</v>
+        <v>134.2617562028781</v>
       </c>
       <c r="L13" t="n">
-        <v>193.9990398810902</v>
+        <v>193.9990398810901</v>
       </c>
       <c r="M13" t="n">
-        <v>208.6013081854157</v>
+        <v>208.6013081854156</v>
       </c>
       <c r="N13" t="n">
         <v>211.7403392907887</v>
       </c>
       <c r="O13" t="n">
-        <v>189.4143422350784</v>
+        <v>189.4143422350783</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2580517576264</v>
+        <v>156.2580517576263</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.78421719840085</v>
+        <v>61.78421719840077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N15" t="n">
-        <v>422.8548988334672</v>
+        <v>325.6570636303434</v>
       </c>
       <c r="O15" t="n">
         <v>336.110525250008</v>
       </c>
       <c r="P15" t="n">
-        <v>189.4554320579639</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.69613915520438</v>
+        <v>49.69613915520429</v>
       </c>
       <c r="K16" t="n">
-        <v>134.2617562028782</v>
+        <v>134.2617562028781</v>
       </c>
       <c r="L16" t="n">
-        <v>193.9990398810902</v>
+        <v>193.9990398810901</v>
       </c>
       <c r="M16" t="n">
-        <v>208.6013081854157</v>
+        <v>208.6013081854156</v>
       </c>
       <c r="N16" t="n">
         <v>211.7403392907887</v>
       </c>
       <c r="O16" t="n">
-        <v>189.4143422350784</v>
+        <v>189.4143422350783</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2580517576264</v>
+        <v>156.2580517576263</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.78421719840085</v>
+        <v>61.78421719840076</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.02727925481457</v>
+        <v>43.02727925481456</v>
       </c>
       <c r="K17" t="n">
         <v>187.9984477613501</v>
@@ -35902,7 +35902,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.64394438826189</v>
+        <v>59.64394438826188</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>310.3806198036757</v>
@@ -35972,16 +35972,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N18" t="n">
-        <v>392.9823026262069</v>
+        <v>359.1444680870088</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P18" t="n">
         <v>253.1658628044225</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L19" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M19" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N19" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O19" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P19" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.02727925481457</v>
+        <v>43.02727925481456</v>
       </c>
       <c r="K20" t="n">
         <v>187.9984477613501</v>
@@ -36139,7 +36139,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.64394438826189</v>
+        <v>59.64394438826188</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.48740445666539</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>310.3806198036757</v>
       </c>
       <c r="M21" t="n">
-        <v>16.06254705730641</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N21" t="n">
-        <v>422.8548988334672</v>
+        <v>359.1444680870088</v>
       </c>
       <c r="O21" t="n">
         <v>336.110525250008</v>
@@ -36218,7 +36218,7 @@
         <v>253.1658628044225</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L22" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M22" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N22" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O22" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P22" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.02727925481457</v>
+        <v>43.02727925481456</v>
       </c>
       <c r="K23" t="n">
         <v>187.9984477613501</v>
@@ -36376,7 +36376,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.64394438826189</v>
+        <v>59.64394438826188</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N24" t="n">
-        <v>393.7031606126317</v>
+        <v>422.854898833467</v>
       </c>
       <c r="O24" t="n">
-        <v>336.110525250008</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>53.79292422474974</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,19 +36519,19 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L25" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M25" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N25" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O25" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P25" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>475.9996158100614</v>
       </c>
       <c r="N26" t="n">
-        <v>465.7186423307481</v>
+        <v>465.7186423307484</v>
       </c>
       <c r="O26" t="n">
         <v>401.1237235165827</v>
       </c>
       <c r="P26" t="n">
-        <v>325.9485279407999</v>
+        <v>325.9485279407998</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.3560315883459</v>
+        <v>202.3560315883458</v>
       </c>
       <c r="R26" t="n">
-        <v>33.19429618207942</v>
+        <v>33.19429618207994</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,16 +36753,16 @@
         <v>70.19698625631715</v>
       </c>
       <c r="K28" t="n">
-        <v>12.05051610390701</v>
+        <v>89.44342101926378</v>
       </c>
       <c r="L28" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M28" t="n">
-        <v>163.7829730018011</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N28" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O28" t="n">
         <v>209.9151893361911</v>
@@ -36771,7 +36771,7 @@
         <v>176.7588988587391</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.28506429951362</v>
+        <v>82.28506429951361</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>401.1237235165827</v>
       </c>
       <c r="P29" t="n">
-        <v>325.9485279407999</v>
+        <v>325.9485279407998</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.3560315883459</v>
+        <v>202.3560315883458</v>
       </c>
       <c r="R29" t="n">
-        <v>33.19429618207943</v>
+        <v>33.19429618207941</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>70.19698625631715</v>
       </c>
       <c r="K31" t="n">
         <v>12.05051610390701</v>
       </c>
       <c r="L31" t="n">
-        <v>71.787799782119</v>
+        <v>214.499886982203</v>
       </c>
       <c r="M31" t="n">
-        <v>91.2678720580343</v>
+        <v>163.7829730018011</v>
       </c>
       <c r="N31" t="n">
         <v>232.2411863919015</v>
       </c>
       <c r="O31" t="n">
-        <v>209.9151893361911</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7588988587391</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.28506429951362</v>
+        <v>82.28506429951361</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,16 +37081,16 @@
         <v>476.036748877651</v>
       </c>
       <c r="O32" t="n">
-        <v>313.6949763223473</v>
+        <v>258.4116363164987</v>
       </c>
       <c r="P32" t="n">
-        <v>183.2364407407159</v>
+        <v>336.2666344877024</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.6741381352484</v>
+        <v>158.4396871230927</v>
       </c>
       <c r="R32" t="n">
-        <v>43.51240272898198</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.024627232467196</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.05556957378738</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L34" t="n">
-        <v>224.8179935291055</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M34" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N34" t="n">
-        <v>242.559292938804</v>
+        <v>242.5592929388041</v>
       </c>
       <c r="O34" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P34" t="n">
-        <v>34.04681165865518</v>
+        <v>187.0770054056417</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.43385226097271</v>
+        <v>54.35365545471773</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.222647088608834</v>
+        <v>7.222647088608912</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6303370678315</v>
+        <v>43.02727925481456</v>
       </c>
       <c r="K35" t="n">
         <v>187.9984477613501</v>
@@ -37321,13 +37321,13 @@
         <v>258.4116363164987</v>
       </c>
       <c r="P35" t="n">
-        <v>183.2364407407159</v>
+        <v>319.0263678310255</v>
       </c>
       <c r="Q35" t="n">
-        <v>195.4338714785717</v>
+        <v>252.2470022012789</v>
       </c>
       <c r="R35" t="n">
-        <v>83.08526679501242</v>
+        <v>83.08526679501249</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.48740445666539</v>
+        <v>33.48740445666526</v>
       </c>
       <c r="K36" t="n">
         <v>185.1197658221336</v>
@@ -37458,28 +37458,28 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.86848151347314</v>
       </c>
       <c r="J37" t="n">
-        <v>13.86848151347381</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>12.05051610390701</v>
       </c>
       <c r="L37" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M37" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N37" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O37" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P37" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.222647088608834</v>
+        <v>7.222647088608827</v>
       </c>
       <c r="J38" t="n">
-        <v>43.02727925481457</v>
+        <v>178.8172063451245</v>
       </c>
       <c r="K38" t="n">
-        <v>380.6015055743671</v>
+        <v>187.9984477613501</v>
       </c>
       <c r="L38" t="n">
-        <v>285.722716714072</v>
+        <v>478.3257745270889</v>
       </c>
       <c r="M38" t="n">
         <v>333.2875286099774</v>
       </c>
       <c r="N38" t="n">
-        <v>458.7964822209748</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O38" t="n">
         <v>258.4116363164987</v>
@@ -37561,10 +37561,10 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.64394438826189</v>
+        <v>59.64394438826188</v>
       </c>
       <c r="R38" t="n">
-        <v>83.08526679501242</v>
+        <v>83.0852667950124</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.48740445666557</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K39" t="n">
         <v>185.1197658221336</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.8684815134738</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>12.05051610390701</v>
       </c>
       <c r="L40" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M40" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N40" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O40" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P40" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.8684815134739</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.222647088608827</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6303370678316</v>
+        <v>43.02727925481456</v>
       </c>
       <c r="K41" t="n">
         <v>187.9984477613501</v>
@@ -37792,16 +37792,16 @@
         <v>323.0065551306644</v>
       </c>
       <c r="O41" t="n">
-        <v>258.4116363164987</v>
+        <v>394.2015634068085</v>
       </c>
       <c r="P41" t="n">
         <v>183.2364407407159</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6565185671809</v>
+        <v>252.2470022012788</v>
       </c>
       <c r="R41" t="n">
-        <v>83.08526679501247</v>
+        <v>83.0852667950124</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.48740445666557</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K42" t="n">
         <v>185.1197658221336</v>
@@ -37868,7 +37868,7 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N42" t="n">
-        <v>442.0852717064817</v>
+        <v>442.0852717064814</v>
       </c>
       <c r="O42" t="n">
         <v>336.110525250008</v>
@@ -37941,22 +37941,22 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L43" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M43" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N43" t="n">
-        <v>103.397580705291</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O43" t="n">
         <v>67.20310213610716</v>
       </c>
       <c r="P43" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.8684815134739</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.222647088608856</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6303370678315</v>
+        <v>178.8172063451244</v>
       </c>
       <c r="K44" t="n">
         <v>187.9984477613501</v>
       </c>
       <c r="L44" t="n">
-        <v>285.722716714072</v>
+        <v>478.3257745270889</v>
       </c>
       <c r="M44" t="n">
         <v>333.2875286099774</v>
@@ -38035,10 +38035,10 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6565185671809</v>
+        <v>59.64394438826188</v>
       </c>
       <c r="R44" t="n">
-        <v>83.08526679501242</v>
+        <v>83.08526679501243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>12.05051610390701</v>
       </c>
       <c r="L46" t="n">
-        <v>71.787799782119</v>
+        <v>71.78779978211898</v>
       </c>
       <c r="M46" t="n">
-        <v>86.3900680864445</v>
+        <v>86.39006808644449</v>
       </c>
       <c r="N46" t="n">
-        <v>89.52909919181755</v>
+        <v>89.52909919181754</v>
       </c>
       <c r="O46" t="n">
-        <v>81.07158364958097</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P46" t="n">
-        <v>34.04681165865518</v>
+        <v>34.04681165865517</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.86848151347361</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
